--- a/data/china_ie_partner/2017-07.xlsx
+++ b/data/china_ie_partner/2017-07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B1CE1F-7F75-FB4E-A2C8-694BF432D44E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C66B0D-AF4D-8349-9A82-9B6AF91004DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="881">
   <si>
     <t>进出口</t>
   </si>
@@ -690,1900 +690,46 @@
     <t>国(地)别不详的</t>
   </si>
   <si>
-    <t>29,787 </t>
-  </si>
-  <si>
-    <t>29,609 </t>
-  </si>
-  <si>
-    <t>178 </t>
-  </si>
-  <si>
-    <t>61,266 </t>
-  </si>
-  <si>
-    <t>53,438 </t>
-  </si>
-  <si>
-    <t>7,828 </t>
-  </si>
-  <si>
-    <t>752,951 </t>
-  </si>
-  <si>
-    <t>706,071 </t>
-  </si>
-  <si>
-    <t>46,880 </t>
-  </si>
-  <si>
-    <t>100 </t>
-  </si>
-  <si>
     <t>0 </t>
   </si>
   <si>
-    <t>33,017 </t>
-  </si>
-  <si>
-    <t>29,331 </t>
-  </si>
-  <si>
-    <t>3,686 </t>
-  </si>
-  <si>
-    <t>736,528 </t>
-  </si>
-  <si>
-    <t>429,201 </t>
-  </si>
-  <si>
-    <t>307,327 </t>
-  </si>
-  <si>
-    <t>348,970 </t>
-  </si>
-  <si>
-    <t>279,861 </t>
-  </si>
-  <si>
-    <t>69,109 </t>
-  </si>
-  <si>
-    <t>23,773 </t>
-  </si>
-  <si>
-    <t>19,665 </t>
-  </si>
-  <si>
     <t>4,108 </t>
   </si>
   <si>
-    <t>311,165 </t>
-  </si>
-  <si>
-    <t>204,603 </t>
-  </si>
-  <si>
-    <t>106,562 </t>
-  </si>
-  <si>
     <t>中国香港</t>
   </si>
   <si>
-    <t>16,336,785 </t>
-  </si>
-  <si>
-    <t>15,995,712 </t>
-  </si>
-  <si>
-    <t>341,073 </t>
-  </si>
-  <si>
-    <t>4,707,760 </t>
-  </si>
-  <si>
-    <t>3,951,440 </t>
-  </si>
-  <si>
-    <t>756,321 </t>
-  </si>
-  <si>
-    <t>3,184,000 </t>
-  </si>
-  <si>
-    <t>1,891,902 </t>
-  </si>
-  <si>
-    <t>1,292,098 </t>
-  </si>
-  <si>
-    <t>1,898,539 </t>
-  </si>
-  <si>
-    <t>1,066,293 </t>
-  </si>
-  <si>
-    <t>832,246 </t>
-  </si>
-  <si>
-    <t>1,331,272 </t>
-  </si>
-  <si>
-    <t>520,929 </t>
-  </si>
-  <si>
-    <t>810,343 </t>
-  </si>
-  <si>
-    <t>854,487 </t>
-  </si>
-  <si>
-    <t>599,885 </t>
-  </si>
-  <si>
-    <t>254,602 </t>
-  </si>
-  <si>
-    <t>16,930,211 </t>
-  </si>
-  <si>
-    <t>7,651,653 </t>
-  </si>
-  <si>
-    <t>9,278,558 </t>
-  </si>
-  <si>
-    <t>173,494 </t>
-  </si>
-  <si>
-    <t>158,552 </t>
-  </si>
-  <si>
-    <t>14,942 </t>
-  </si>
-  <si>
-    <t>587,446 </t>
-  </si>
-  <si>
-    <t>169,919 </t>
-  </si>
-  <si>
-    <t>417,527 </t>
-  </si>
-  <si>
-    <t>146,482 </t>
-  </si>
-  <si>
-    <t>67,952 </t>
-  </si>
-  <si>
-    <t>78,530 </t>
-  </si>
-  <si>
-    <t>110,953 </t>
-  </si>
-  <si>
-    <t>108,555 </t>
-  </si>
-  <si>
-    <t>2,398 </t>
-  </si>
-  <si>
-    <t>156,183 </t>
-  </si>
-  <si>
-    <t>150,513 </t>
-  </si>
-  <si>
-    <t>5,670 </t>
-  </si>
-  <si>
     <t>马来西亚 </t>
   </si>
   <si>
-    <t>5,082,563 </t>
-  </si>
-  <si>
-    <t>2,201,842 </t>
-  </si>
-  <si>
-    <t>2,880,720 </t>
-  </si>
-  <si>
-    <t>18,376 </t>
-  </si>
-  <si>
-    <t>18,324 </t>
-  </si>
-  <si>
-    <t>52 </t>
-  </si>
-  <si>
-    <t>351,668 </t>
-  </si>
-  <si>
-    <t>98,463 </t>
-  </si>
-  <si>
-    <t>253,205 </t>
-  </si>
-  <si>
     <t>57,313 </t>
   </si>
   <si>
-    <t>56,363 </t>
-  </si>
-  <si>
-    <t>950 </t>
-  </si>
-  <si>
-    <t>769,736 </t>
-  </si>
-  <si>
-    <t>156,787 </t>
-  </si>
-  <si>
-    <t>612,948 </t>
-  </si>
-  <si>
-    <t>1,039,123 </t>
-  </si>
-  <si>
-    <t>953,591 </t>
-  </si>
-  <si>
-    <t>85,532 </t>
-  </si>
-  <si>
-    <t>4,159 </t>
-  </si>
-  <si>
-    <t>4,154 </t>
-  </si>
-  <si>
-    <t>5 </t>
-  </si>
-  <si>
-    <t>2,900,106 </t>
-  </si>
-  <si>
-    <t>1,832,373 </t>
-  </si>
-  <si>
-    <t>1,067,733 </t>
-  </si>
-  <si>
-    <t>377,920 </t>
-  </si>
-  <si>
-    <t>91,104 </t>
-  </si>
-  <si>
-    <t>286,816 </t>
-  </si>
-  <si>
-    <t>2,580,326 </t>
-  </si>
-  <si>
-    <t>1,117,904 </t>
-  </si>
-  <si>
-    <t>1,462,422 </t>
-  </si>
-  <si>
-    <t>4,245,873 </t>
-  </si>
-  <si>
-    <t>2,528,426 </t>
-  </si>
-  <si>
-    <t>1,717,447 </t>
-  </si>
-  <si>
-    <t>14,927,443 </t>
-  </si>
-  <si>
-    <t>5,524,973 </t>
-  </si>
-  <si>
-    <t>9,402,470 </t>
-  </si>
-  <si>
-    <t>246,109 </t>
-  </si>
-  <si>
-    <t>228,064 </t>
-  </si>
-  <si>
-    <t>18,045 </t>
-  </si>
-  <si>
-    <t>70,188 </t>
-  </si>
-  <si>
-    <t>70,053 </t>
-  </si>
-  <si>
-    <t>134 </t>
-  </si>
-  <si>
-    <t>4,521,147 </t>
-  </si>
-  <si>
-    <t>2,253,766 </t>
-  </si>
-  <si>
-    <t>2,267,381 </t>
-  </si>
-  <si>
-    <t>1,386,049 </t>
-  </si>
-  <si>
-    <t>1,166,984 </t>
-  </si>
-  <si>
-    <t>219,065 </t>
-  </si>
-  <si>
-    <t>2,317,760 </t>
-  </si>
-  <si>
-    <t>1,767,760 </t>
-  </si>
-  <si>
-    <t>550,000 </t>
-  </si>
-  <si>
-    <t>187,607 </t>
-  </si>
-  <si>
-    <t>107,619 </t>
-  </si>
-  <si>
-    <t>79,987 </t>
-  </si>
-  <si>
-    <t>6,579,390 </t>
-  </si>
-  <si>
-    <t>4,068,425 </t>
-  </si>
-  <si>
-    <t>2,510,964 </t>
-  </si>
-  <si>
-    <t>7,418,212 </t>
-  </si>
-  <si>
     <t>中国台湾</t>
   </si>
   <si>
-    <t>11,044,988 </t>
-  </si>
-  <si>
-    <t>2,374,584 </t>
-  </si>
-  <si>
-    <t>8,670,404 </t>
-  </si>
-  <si>
-    <t>4,962 </t>
-  </si>
-  <si>
-    <t>4,951 </t>
-  </si>
-  <si>
-    <t>10 </t>
-  </si>
-  <si>
-    <t>1,052,560 </t>
-  </si>
-  <si>
-    <t>733,209 </t>
-  </si>
-  <si>
-    <t>319,352 </t>
-  </si>
-  <si>
-    <t>457,010 </t>
-  </si>
-  <si>
-    <t>454,971 </t>
-  </si>
-  <si>
-    <t>2,040 </t>
-  </si>
-  <si>
-    <t>79,475 </t>
-  </si>
-  <si>
-    <t>78,461 </t>
-  </si>
-  <si>
-    <t>1,014 </t>
-  </si>
-  <si>
-    <t>409,185 </t>
-  </si>
-  <si>
-    <t>33,358 </t>
-  </si>
-  <si>
-    <t>375,827 </t>
-  </si>
-  <si>
-    <t>349,643 </t>
-  </si>
-  <si>
-    <t>267,767 </t>
-  </si>
-  <si>
-    <t>81,877 </t>
-  </si>
-  <si>
     <t>12 </t>
   </si>
   <si>
-    <t>9,283,634 </t>
-  </si>
-  <si>
-    <t>5,492,518 </t>
-  </si>
-  <si>
-    <t>3,791,116 </t>
-  </si>
-  <si>
-    <t>456,538 </t>
-  </si>
-  <si>
-    <t>417,518 </t>
-  </si>
-  <si>
-    <t>39,020 </t>
-  </si>
-  <si>
-    <t>1,079,702 </t>
-  </si>
-  <si>
-    <t>130,724 </t>
-  </si>
-  <si>
-    <t>948,977 </t>
-  </si>
-  <si>
-    <t>125,305 </t>
-  </si>
-  <si>
-    <t>112,281 </t>
-  </si>
-  <si>
-    <t>13,025 </t>
-  </si>
-  <si>
-    <t>13,689 </t>
-  </si>
-  <si>
-    <t>12,750 </t>
-  </si>
-  <si>
-    <t>939 </t>
-  </si>
-  <si>
-    <t>1,695 </t>
-  </si>
-  <si>
-    <t>834 </t>
-  </si>
-  <si>
-    <t>860 </t>
-  </si>
-  <si>
-    <t>117,136 </t>
-  </si>
-  <si>
-    <t>71,693 </t>
-  </si>
-  <si>
-    <t>45,444 </t>
-  </si>
-  <si>
-    <t>187 </t>
-  </si>
-  <si>
-    <t>186 </t>
-  </si>
-  <si>
     <t>1 </t>
   </si>
   <si>
-    <t>2,338 </t>
-  </si>
-  <si>
-    <t>2,336 </t>
-  </si>
-  <si>
     <t>2 </t>
   </si>
   <si>
-    <t>1,890 </t>
-  </si>
-  <si>
-    <t>448 </t>
-  </si>
-  <si>
-    <t>1,441 </t>
-  </si>
-  <si>
-    <t>5,443 </t>
-  </si>
-  <si>
-    <t>5,441 </t>
-  </si>
-  <si>
-    <t>2,057 </t>
-  </si>
-  <si>
-    <t>273,639 </t>
-  </si>
-  <si>
-    <t>25,392 </t>
-  </si>
-  <si>
-    <t>248,247 </t>
-  </si>
-  <si>
-    <t>146,636 </t>
-  </si>
-  <si>
-    <t>146,635 </t>
-  </si>
-  <si>
-    <t>628,402 </t>
-  </si>
-  <si>
-    <t>558,543 </t>
-  </si>
-  <si>
-    <t>69,859 </t>
-  </si>
-  <si>
-    <t>92,842 </t>
-  </si>
-  <si>
-    <t>10,396 </t>
-  </si>
-  <si>
-    <t>82,446 </t>
-  </si>
-  <si>
-    <t>225,607 </t>
-  </si>
-  <si>
-    <t>205,981 </t>
-  </si>
-  <si>
-    <t>19,626 </t>
-  </si>
-  <si>
-    <t>121,378 </t>
-  </si>
-  <si>
-    <t>24,114 </t>
-  </si>
-  <si>
-    <t>97,264 </t>
-  </si>
-  <si>
-    <t>27,801 </t>
-  </si>
-  <si>
-    <t>25,839 </t>
-  </si>
-  <si>
-    <t>1,962 </t>
-  </si>
-  <si>
-    <t>354,006 </t>
-  </si>
-  <si>
-    <t>273,464 </t>
-  </si>
-  <si>
-    <t>80,542 </t>
-  </si>
-  <si>
-    <t>166,602 </t>
-  </si>
-  <si>
-    <t>63,743 </t>
-  </si>
-  <si>
-    <t>102,859 </t>
-  </si>
-  <si>
-    <t>1,672 </t>
-  </si>
-  <si>
-    <t>1,664 </t>
-  </si>
-  <si>
-    <t>8 </t>
-  </si>
-  <si>
-    <t>93,698 </t>
-  </si>
-  <si>
-    <t>88,304 </t>
-  </si>
-  <si>
-    <t>5,395 </t>
-  </si>
-  <si>
-    <t>259,434 </t>
-  </si>
-  <si>
-    <t>247,002 </t>
-  </si>
-  <si>
-    <t>12,432 </t>
-  </si>
-  <si>
-    <t>88,291 </t>
-  </si>
-  <si>
-    <t>85,555 </t>
-  </si>
-  <si>
-    <t>2,736 </t>
-  </si>
-  <si>
-    <t>153,920 </t>
-  </si>
-  <si>
-    <t>57,040 </t>
-  </si>
-  <si>
-    <t>96,880 </t>
-  </si>
-  <si>
-    <t>67,069 </t>
-  </si>
-  <si>
-    <t>55,571 </t>
-  </si>
-  <si>
-    <t>11,498 </t>
-  </si>
-  <si>
-    <t>15,275 </t>
-  </si>
-  <si>
-    <t>15,046 </t>
-  </si>
-  <si>
-    <t>229 </t>
-  </si>
-  <si>
-    <t>25,794 </t>
-  </si>
-  <si>
-    <t>21,477 </t>
-  </si>
-  <si>
-    <t>4,317 </t>
-  </si>
-  <si>
-    <t>101,566 </t>
-  </si>
-  <si>
-    <t>54,050 </t>
-  </si>
-  <si>
-    <t>47,517 </t>
-  </si>
-  <si>
-    <t>36,234 </t>
-  </si>
-  <si>
-    <t>34,049 </t>
-  </si>
-  <si>
-    <t>2,185 </t>
-  </si>
-  <si>
-    <t>224,130 </t>
-  </si>
-  <si>
-    <t>180,579 </t>
-  </si>
-  <si>
-    <t>43,551 </t>
-  </si>
-  <si>
-    <t>103,001 </t>
-  </si>
-  <si>
-    <t>76,941 </t>
-  </si>
-  <si>
-    <t>26,060 </t>
-  </si>
-  <si>
-    <t>29,931 </t>
-  </si>
-  <si>
-    <t>22,171 </t>
-  </si>
-  <si>
-    <t>7,760 </t>
-  </si>
-  <si>
-    <t>6,030 </t>
-  </si>
-  <si>
-    <t>3,500 </t>
-  </si>
-  <si>
-    <t>2,530 </t>
-  </si>
-  <si>
-    <t>770,189 </t>
-  </si>
-  <si>
-    <t>740,230 </t>
-  </si>
-  <si>
-    <t>29,959 </t>
-  </si>
-  <si>
-    <t>11,384 </t>
-  </si>
-  <si>
-    <t>13,751 </t>
-  </si>
-  <si>
-    <t>12,272 </t>
-  </si>
-  <si>
-    <t>1,479 </t>
-  </si>
-  <si>
-    <t>374 </t>
-  </si>
-  <si>
-    <t>127,603 </t>
-  </si>
-  <si>
-    <t>123,849 </t>
-  </si>
-  <si>
-    <t>3,754 </t>
-  </si>
-  <si>
-    <t>2,676 </t>
-  </si>
-  <si>
-    <t>2,675 </t>
-  </si>
-  <si>
-    <t>28,723 </t>
-  </si>
-  <si>
-    <t>12,017 </t>
-  </si>
-  <si>
-    <t>16,705 </t>
-  </si>
-  <si>
-    <t>24,623 </t>
-  </si>
-  <si>
-    <t>24,379 </t>
-  </si>
-  <si>
-    <t>243 </t>
-  </si>
-  <si>
-    <t>2,198,568 </t>
-  </si>
-  <si>
-    <t>855,139 </t>
-  </si>
-  <si>
-    <t>1,343,429 </t>
-  </si>
-  <si>
     <t>15 </t>
   </si>
   <si>
-    <t>166,944 </t>
-  </si>
-  <si>
-    <t>141,267 </t>
-  </si>
-  <si>
-    <t>25,677 </t>
-  </si>
-  <si>
-    <t>178,003 </t>
-  </si>
-  <si>
-    <t>169,543 </t>
-  </si>
-  <si>
-    <t>8,460 </t>
-  </si>
-  <si>
-    <t>107,135 </t>
-  </si>
-  <si>
-    <t>98,863 </t>
-  </si>
-  <si>
-    <t>8,272 </t>
-  </si>
-  <si>
-    <t>97,090 </t>
-  </si>
-  <si>
-    <t>87,418 </t>
-  </si>
-  <si>
-    <t>9,672 </t>
-  </si>
-  <si>
-    <t>36,586 </t>
-  </si>
-  <si>
-    <t>33,994 </t>
-  </si>
-  <si>
-    <t>2,592 </t>
-  </si>
-  <si>
-    <t>10,507 </t>
-  </si>
-  <si>
-    <t>10,248 </t>
-  </si>
-  <si>
-    <t>259 </t>
-  </si>
-  <si>
-    <t>200,130 </t>
-  </si>
-  <si>
-    <t>57,592 </t>
-  </si>
-  <si>
-    <t>142,538 </t>
-  </si>
-  <si>
-    <t>162,751 </t>
-  </si>
-  <si>
-    <t>38,199 </t>
-  </si>
-  <si>
-    <t>124,552 </t>
-  </si>
-  <si>
-    <t>38,393 </t>
-  </si>
-  <si>
-    <t>25,697 </t>
-  </si>
-  <si>
-    <t>12,697 </t>
-  </si>
-  <si>
-    <t>3,121 </t>
-  </si>
-  <si>
-    <t>2,621 </t>
-  </si>
-  <si>
-    <t>500 </t>
-  </si>
-  <si>
-    <t>592 </t>
-  </si>
-  <si>
-    <t>2,519 </t>
-  </si>
-  <si>
-    <t>2,489 </t>
-  </si>
-  <si>
     <t>30 </t>
   </si>
   <si>
-    <t>16,781 </t>
-  </si>
-  <si>
-    <t>3,257 </t>
-  </si>
-  <si>
-    <t>13,524 </t>
-  </si>
-  <si>
-    <t>1,296 </t>
-  </si>
-  <si>
-    <t>1,295 </t>
-  </si>
-  <si>
-    <t>34,940 </t>
-  </si>
-  <si>
-    <t>3,782 </t>
-  </si>
-  <si>
-    <t>31,158 </t>
-  </si>
-  <si>
-    <t>325 </t>
-  </si>
-  <si>
-    <t>1,355,412 </t>
-  </si>
-  <si>
-    <t>954,831 </t>
-  </si>
-  <si>
-    <t>400,581 </t>
-  </si>
-  <si>
-    <t>643,362 </t>
-  </si>
-  <si>
-    <t>391,794 </t>
-  </si>
-  <si>
-    <t>251,567 </t>
-  </si>
-  <si>
-    <t>4,864,849 </t>
-  </si>
-  <si>
-    <t>3,620,762 </t>
-  </si>
-  <si>
-    <t>1,244,087 </t>
-  </si>
-  <si>
-    <t>9,703,383 </t>
-  </si>
-  <si>
-    <t>4,251,516 </t>
-  </si>
-  <si>
-    <t>5,451,867 </t>
-  </si>
-  <si>
-    <t>3,220,900 </t>
-  </si>
-  <si>
-    <t>1,647,660 </t>
-  </si>
-  <si>
-    <t>1,573,240 </t>
-  </si>
-  <si>
-    <t>642,957 </t>
-  </si>
-  <si>
-    <t>162,031 </t>
-  </si>
-  <si>
-    <t>480,926 </t>
-  </si>
-  <si>
-    <t>2,922,902 </t>
-  </si>
-  <si>
-    <t>1,684,598 </t>
-  </si>
-  <si>
-    <t>1,238,304 </t>
-  </si>
-  <si>
-    <t>75,032 </t>
-  </si>
-  <si>
-    <t>57,219 </t>
-  </si>
-  <si>
-    <t>17,813 </t>
-  </si>
-  <si>
-    <t>4,488,143 </t>
-  </si>
-  <si>
-    <t>3,979,403 </t>
-  </si>
-  <si>
-    <t>508,740 </t>
-  </si>
-  <si>
-    <t>287,170 </t>
-  </si>
-  <si>
-    <t>253,727 </t>
-  </si>
-  <si>
-    <t>33,443 </t>
-  </si>
-  <si>
-    <t>301,264 </t>
-  </si>
-  <si>
-    <t>184,593 </t>
-  </si>
-  <si>
-    <t>116,671 </t>
-  </si>
-  <si>
-    <t>1,997,091 </t>
-  </si>
-  <si>
-    <t>1,485,891 </t>
-  </si>
-  <si>
-    <t>511,200 </t>
-  </si>
-  <si>
-    <t>31,059 </t>
-  </si>
-  <si>
-    <t>25,982 </t>
-  </si>
-  <si>
-    <t>5,077 </t>
-  </si>
-  <si>
-    <t>41 </t>
-  </si>
-  <si>
-    <t>40 </t>
-  </si>
-  <si>
-    <t>495,258 </t>
-  </si>
-  <si>
-    <t>148,601 </t>
-  </si>
-  <si>
-    <t>346,656 </t>
-  </si>
-  <si>
-    <t>120,120 </t>
-  </si>
-  <si>
-    <t>64,749 </t>
-  </si>
-  <si>
-    <t>55,371 </t>
-  </si>
-  <si>
-    <t>414,937 </t>
-  </si>
-  <si>
-    <t>176,596 </t>
-  </si>
-  <si>
-    <t>238,341 </t>
-  </si>
-  <si>
-    <t>508 </t>
-  </si>
-  <si>
-    <t>499 </t>
-  </si>
-  <si>
-    <t>9 </t>
-  </si>
-  <si>
-    <t>588,544 </t>
-  </si>
-  <si>
-    <t>339,496 </t>
-  </si>
-  <si>
-    <t>249,048 </t>
-  </si>
-  <si>
-    <t>13,214 </t>
-  </si>
-  <si>
-    <t>4,990 </t>
-  </si>
-  <si>
-    <t>8,224 </t>
-  </si>
-  <si>
-    <t>11,686 </t>
-  </si>
-  <si>
-    <t>2,659 </t>
-  </si>
-  <si>
-    <t>9,027 </t>
-  </si>
-  <si>
-    <t>116,878 </t>
-  </si>
-  <si>
-    <t>94,031 </t>
-  </si>
-  <si>
-    <t>22,847 </t>
-  </si>
-  <si>
-    <t>585 </t>
-  </si>
-  <si>
-    <t>216 </t>
-  </si>
-  <si>
-    <t>369 </t>
-  </si>
-  <si>
-    <t>359,897 </t>
-  </si>
-  <si>
-    <t>152,233 </t>
-  </si>
-  <si>
-    <t>207,663 </t>
-  </si>
-  <si>
-    <t>1,300,674 </t>
-  </si>
-  <si>
-    <t>1,090,261 </t>
-  </si>
-  <si>
-    <t>210,414 </t>
-  </si>
-  <si>
-    <t>330,759 </t>
-  </si>
-  <si>
-    <t>229,968 </t>
-  </si>
-  <si>
-    <t>100,791 </t>
-  </si>
-  <si>
-    <t>366 </t>
-  </si>
-  <si>
-    <t>257 </t>
-  </si>
-  <si>
-    <t>108 </t>
-  </si>
-  <si>
-    <t>925,886 </t>
-  </si>
-  <si>
-    <t>452,960 </t>
-  </si>
-  <si>
-    <t>472,926 </t>
-  </si>
-  <si>
-    <t>2,263,981 </t>
-  </si>
-  <si>
-    <t>209,491 </t>
-  </si>
-  <si>
-    <t>2,054,490 </t>
-  </si>
-  <si>
-    <t>64,201 </t>
-  </si>
-  <si>
-    <t>52,451 </t>
-  </si>
-  <si>
-    <t>11,750 </t>
-  </si>
-  <si>
-    <t>79,866 </t>
-  </si>
-  <si>
-    <t>73,334 </t>
-  </si>
-  <si>
-    <t>6,532 </t>
-  </si>
-  <si>
-    <t>110,004 </t>
-  </si>
-  <si>
-    <t>96,803 </t>
-  </si>
-  <si>
-    <t>13,201 </t>
-  </si>
-  <si>
-    <t>60,415 </t>
-  </si>
-  <si>
-    <t>57,166 </t>
-  </si>
-  <si>
-    <t>3,249 </t>
-  </si>
-  <si>
-    <t>14,910 </t>
-  </si>
-  <si>
-    <t>8,695 </t>
-  </si>
-  <si>
-    <t>6,215 </t>
-  </si>
-  <si>
-    <t>148,718 </t>
-  </si>
-  <si>
-    <t>33,209 </t>
-  </si>
-  <si>
-    <t>115,509 </t>
-  </si>
-  <si>
-    <t>85,786 </t>
-  </si>
-  <si>
-    <t>68,351 </t>
-  </si>
-  <si>
-    <t>17,435 </t>
-  </si>
-  <si>
-    <t>7,834 </t>
-  </si>
-  <si>
-    <t>5,619 </t>
-  </si>
-  <si>
-    <t>2,216 </t>
-  </si>
-  <si>
-    <t>4,786,883 </t>
-  </si>
-  <si>
-    <t>2,702,725 </t>
-  </si>
-  <si>
-    <t>2,084,158 </t>
-  </si>
-  <si>
-    <t>538,585 </t>
-  </si>
-  <si>
-    <t>346,012 </t>
-  </si>
-  <si>
-    <t>192,573 </t>
-  </si>
-  <si>
-    <t>199,721 </t>
-  </si>
-  <si>
-    <t>170,856 </t>
-  </si>
-  <si>
-    <t>28,864 </t>
-  </si>
-  <si>
-    <t>87,866 </t>
-  </si>
-  <si>
-    <t>69,999 </t>
-  </si>
-  <si>
-    <t>17,866 </t>
-  </si>
-  <si>
-    <t>696,016 </t>
-  </si>
-  <si>
-    <t>490,091 </t>
-  </si>
-  <si>
-    <t>205,925 </t>
-  </si>
-  <si>
-    <t>285,172 </t>
-  </si>
-  <si>
-    <t>143,079 </t>
-  </si>
-  <si>
-    <t>142,093 </t>
-  </si>
-  <si>
-    <t>7,364 </t>
-  </si>
-  <si>
-    <t>3,739 </t>
-  </si>
-  <si>
-    <t>3,624 </t>
-  </si>
-  <si>
-    <t>8,832 </t>
-  </si>
-  <si>
-    <t>5,688 </t>
-  </si>
-  <si>
-    <t>3,144 </t>
-  </si>
-  <si>
-    <t>6,924 </t>
-  </si>
-  <si>
-    <t>104 </t>
-  </si>
-  <si>
-    <t>6,820 </t>
-  </si>
-  <si>
-    <t>49,607 </t>
-  </si>
-  <si>
-    <t>34,589 </t>
-  </si>
-  <si>
-    <t>15,019 </t>
-  </si>
-  <si>
-    <t>12,562 </t>
-  </si>
-  <si>
-    <t>8,028 </t>
-  </si>
-  <si>
-    <t>4,534 </t>
-  </si>
-  <si>
     <t>3 </t>
   </si>
   <si>
-    <t>15,469,782 </t>
-  </si>
-  <si>
-    <t>7,920,430 </t>
-  </si>
-  <si>
-    <t>7,549,353 </t>
-  </si>
-  <si>
-    <t>2,782 </t>
-  </si>
-  <si>
-    <t>2,781 </t>
-  </si>
-  <si>
-    <t>1,103,918 </t>
-  </si>
-  <si>
-    <t>596,155 </t>
-  </si>
-  <si>
-    <t>507,763 </t>
-  </si>
-  <si>
-    <t>2,133 </t>
-  </si>
-  <si>
-    <t>10,273 </t>
-  </si>
-  <si>
-    <t>8,639 </t>
-  </si>
-  <si>
-    <t>1,634 </t>
-  </si>
-  <si>
-    <t>3,931 </t>
-  </si>
-  <si>
-    <t>2,831 </t>
-  </si>
-  <si>
-    <t>1,100 </t>
-  </si>
-  <si>
-    <t>6,355 </t>
-  </si>
-  <si>
-    <t>72,816 </t>
-  </si>
-  <si>
-    <t>50,312 </t>
-  </si>
-  <si>
-    <t>22,504 </t>
-  </si>
-  <si>
-    <t>289 </t>
-  </si>
-  <si>
-    <t>5,506,680 </t>
-  </si>
-  <si>
-    <t>1,809,835 </t>
-  </si>
-  <si>
-    <t>3,696,845 </t>
-  </si>
-  <si>
-    <t>443 </t>
-  </si>
-  <si>
-    <t>1,822,431 </t>
-  </si>
-  <si>
-    <t>882,760 </t>
-  </si>
-  <si>
-    <t>939,671 </t>
-  </si>
-  <si>
-    <t>663,930 </t>
-  </si>
-  <si>
-    <t>434,710 </t>
-  </si>
-  <si>
-    <t>229,220 </t>
-  </si>
-  <si>
-    <t>1,908 </t>
-  </si>
-  <si>
-    <t>1,906 </t>
-  </si>
-  <si>
-    <t>134,972 </t>
-  </si>
-  <si>
-    <t>87,537 </t>
-  </si>
-  <si>
-    <t>47,435 </t>
-  </si>
-  <si>
-    <t>78,775 </t>
-  </si>
-  <si>
-    <t>69,325 </t>
-  </si>
-  <si>
-    <t>9,450 </t>
-  </si>
-  <si>
-    <t>2,050 </t>
-  </si>
-  <si>
-    <t>107,588 </t>
-  </si>
-  <si>
-    <t>99,660 </t>
-  </si>
-  <si>
-    <t>7,928 </t>
-  </si>
-  <si>
-    <t>229,656 </t>
-  </si>
-  <si>
-    <t>159,998 </t>
-  </si>
-  <si>
-    <t>69,658 </t>
-  </si>
-  <si>
-    <t>1,058 </t>
-  </si>
-  <si>
-    <t>1,044 </t>
-  </si>
-  <si>
-    <t>14 </t>
-  </si>
-  <si>
-    <t>373 </t>
-  </si>
-  <si>
-    <t>4,068 </t>
-  </si>
-  <si>
-    <t>132,431 </t>
-  </si>
-  <si>
-    <t>120,537 </t>
-  </si>
-  <si>
-    <t>11,894 </t>
-  </si>
-  <si>
-    <t>12,531 </t>
-  </si>
-  <si>
-    <t>10,929 </t>
-  </si>
-  <si>
-    <t>1,602 </t>
-  </si>
-  <si>
-    <t>31,620 </t>
-  </si>
-  <si>
-    <t>31,198 </t>
-  </si>
-  <si>
-    <t>421 </t>
-  </si>
-  <si>
-    <t>55,351 </t>
-  </si>
-  <si>
-    <t>54,056 </t>
-  </si>
-  <si>
-    <t>1,294 </t>
-  </si>
-  <si>
-    <t>27,640 </t>
-  </si>
-  <si>
-    <t>25,917 </t>
-  </si>
-  <si>
-    <t>1,722 </t>
-  </si>
-  <si>
-    <t>1,565 </t>
-  </si>
-  <si>
-    <t>2,821,818 </t>
-  </si>
-  <si>
-    <t>2,169,212 </t>
-  </si>
-  <si>
-    <t>652,605 </t>
-  </si>
-  <si>
-    <t>44,300 </t>
-  </si>
-  <si>
-    <t>42,429 </t>
-  </si>
-  <si>
-    <t>1,871 </t>
-  </si>
-  <si>
-    <t>367,287 </t>
-  </si>
-  <si>
-    <t>362,845 </t>
-  </si>
-  <si>
-    <t>4,442 </t>
-  </si>
-  <si>
-    <t>111,767 </t>
-  </si>
-  <si>
-    <t>109,109 </t>
-  </si>
-  <si>
-    <t>2,658 </t>
-  </si>
-  <si>
-    <t>1,105,465 </t>
-  </si>
-  <si>
-    <t>407,088 </t>
-  </si>
-  <si>
-    <t>698,377 </t>
-  </si>
-  <si>
-    <t>58,180 </t>
-  </si>
-  <si>
-    <t>32,671 </t>
-  </si>
-  <si>
-    <t>25,509 </t>
-  </si>
-  <si>
-    <t>700 </t>
-  </si>
-  <si>
-    <t>698 </t>
-  </si>
-  <si>
-    <t>225 </t>
-  </si>
-  <si>
-    <t>20,128 </t>
-  </si>
-  <si>
-    <t>20,107 </t>
-  </si>
-  <si>
-    <t>20 </t>
-  </si>
-  <si>
-    <t>54,419 </t>
-  </si>
-  <si>
-    <t>50,098 </t>
-  </si>
-  <si>
-    <t>4,321 </t>
-  </si>
-  <si>
-    <t>15,204 </t>
-  </si>
-  <si>
-    <t>13,547 </t>
-  </si>
-  <si>
-    <t>1,657 </t>
-  </si>
-  <si>
-    <t>42,745 </t>
-  </si>
-  <si>
-    <t>26,674 </t>
-  </si>
-  <si>
-    <t>16,071 </t>
-  </si>
-  <si>
-    <t>102 </t>
-  </si>
-  <si>
-    <t>101 </t>
-  </si>
-  <si>
-    <t>329,388 </t>
-  </si>
-  <si>
-    <t>134,171 </t>
-  </si>
-  <si>
-    <t>195,216 </t>
-  </si>
-  <si>
-    <t>472,645 </t>
-  </si>
-  <si>
-    <t>77,628 </t>
-  </si>
-  <si>
-    <t>395,017 </t>
-  </si>
-  <si>
-    <t>2,192 </t>
-  </si>
-  <si>
-    <t>1,346 </t>
-  </si>
-  <si>
-    <t>1,314 </t>
-  </si>
-  <si>
-    <t>33 </t>
-  </si>
-  <si>
-    <t>2,840 </t>
-  </si>
-  <si>
-    <t>1,463 </t>
-  </si>
-  <si>
-    <t>72 </t>
-  </si>
-  <si>
-    <t>1,391 </t>
-  </si>
-  <si>
-    <t>36,902,740 </t>
-  </si>
-  <si>
-    <t>27,564,362 </t>
-  </si>
-  <si>
-    <t>9,338,378 </t>
-  </si>
-  <si>
-    <t>3,149,278 </t>
-  </si>
-  <si>
-    <t>2,067,589 </t>
-  </si>
-  <si>
-    <t>1,081,690 </t>
-  </si>
-  <si>
-    <t>33,749,629 </t>
-  </si>
-  <si>
-    <t>25,496,242 </t>
-  </si>
-  <si>
-    <t>8,253,388 </t>
-  </si>
-  <si>
-    <t>3,315 </t>
-  </si>
-  <si>
-    <t>3,301 </t>
-  </si>
-  <si>
-    <t>496 </t>
-  </si>
-  <si>
     <t>21 </t>
   </si>
   <si>
-    <t>8,583,542 </t>
-  </si>
-  <si>
-    <t>2,848,770 </t>
-  </si>
-  <si>
-    <t>5,734,772 </t>
-  </si>
-  <si>
-    <t>7,293,360 </t>
-  </si>
-  <si>
-    <t>2,301,137 </t>
-  </si>
-  <si>
-    <t>4,992,222 </t>
-  </si>
-  <si>
-    <t>1,397 </t>
-  </si>
-  <si>
-    <t>290 </t>
-  </si>
-  <si>
-    <t>1,107 </t>
-  </si>
-  <si>
-    <t>24,661 </t>
-  </si>
-  <si>
-    <t>24,336 </t>
-  </si>
-  <si>
-    <t>25 </t>
-  </si>
-  <si>
     <t>13 </t>
-  </si>
-  <si>
-    <t>11 </t>
-  </si>
-  <si>
-    <t>49,688 </t>
-  </si>
-  <si>
-    <t>5,632 </t>
-  </si>
-  <si>
-    <t>44,056 </t>
-  </si>
-  <si>
-    <t>9,976 </t>
-  </si>
-  <si>
-    <t>6,221 </t>
-  </si>
-  <si>
-    <t>3,755 </t>
-  </si>
-  <si>
-    <t>833,382 </t>
-  </si>
-  <si>
-    <t>292,810 </t>
-  </si>
-  <si>
-    <t>540,572 </t>
-  </si>
-  <si>
-    <t>517 </t>
-  </si>
-  <si>
-    <t>165,666 </t>
-  </si>
-  <si>
-    <t>49,285 </t>
-  </si>
-  <si>
-    <t>116,381 </t>
-  </si>
-  <si>
-    <t>264 </t>
-  </si>
-  <si>
-    <t>39,797 </t>
-  </si>
-  <si>
-    <t>5,889 </t>
-  </si>
-  <si>
-    <t>33,908 </t>
-  </si>
-  <si>
-    <t>1,563 </t>
-  </si>
-  <si>
-    <t>5,062 </t>
-  </si>
-  <si>
-    <t>5,050 </t>
-  </si>
-  <si>
-    <t>1,165 </t>
-  </si>
-  <si>
-    <t>972 </t>
-  </si>
-  <si>
-    <t>192 </t>
-  </si>
-  <si>
-    <t>254 </t>
-  </si>
-  <si>
-    <t>5,227 </t>
-  </si>
-  <si>
-    <t>3,370 </t>
-  </si>
-  <si>
-    <t>1,857 </t>
-  </si>
-  <si>
-    <t>145,935 </t>
-  </si>
-  <si>
-    <t>998 </t>
-  </si>
-  <si>
-    <t>4,296 </t>
-  </si>
-  <si>
-    <t>3,922 </t>
-  </si>
-  <si>
-    <t>24 </t>
-  </si>
-  <si>
-    <t>286 </t>
-  </si>
-  <si>
-    <t>11,174 </t>
   </si>
   <si>
     <t>year</t>
@@ -2664,6 +810,1866 @@
   </si>
   <si>
     <t>大洋洲其他国家(地区)</t>
+  </si>
+  <si>
+    <t>43,582 </t>
+  </si>
+  <si>
+    <t>89,654 </t>
+  </si>
+  <si>
+    <t>1,102,521 </t>
+  </si>
+  <si>
+    <t>146 </t>
+  </si>
+  <si>
+    <t>48,375 </t>
+  </si>
+  <si>
+    <t>1,082,115 </t>
+  </si>
+  <si>
+    <t>511,357 </t>
+  </si>
+  <si>
+    <t>34,892 </t>
+  </si>
+  <si>
+    <t>456,160 </t>
+  </si>
+  <si>
+    <t>23,932,709 </t>
+  </si>
+  <si>
+    <t>6,897,511 </t>
+  </si>
+  <si>
+    <t>4,664,328 </t>
+  </si>
+  <si>
+    <t>2,786,552 </t>
+  </si>
+  <si>
+    <t>1,950,079 </t>
+  </si>
+  <si>
+    <t>1,252,019 </t>
+  </si>
+  <si>
+    <t>24,795,469 </t>
+  </si>
+  <si>
+    <t>254,091 </t>
+  </si>
+  <si>
+    <t>860,754 </t>
+  </si>
+  <si>
+    <t>214,972 </t>
+  </si>
+  <si>
+    <t>162,419 </t>
+  </si>
+  <si>
+    <t>229,087 </t>
+  </si>
+  <si>
+    <t>7,448,196 </t>
+  </si>
+  <si>
+    <t>26,914 </t>
+  </si>
+  <si>
+    <t>516,346 </t>
+  </si>
+  <si>
+    <t>84,241 </t>
+  </si>
+  <si>
+    <t>1,127,620 </t>
+  </si>
+  <si>
+    <t>1,521,326 </t>
+  </si>
+  <si>
+    <t>6,086 </t>
+  </si>
+  <si>
+    <t>4,247,002 </t>
+  </si>
+  <si>
+    <t>554,074 </t>
+  </si>
+  <si>
+    <t>3,780,061 </t>
+  </si>
+  <si>
+    <t>6,219,844 </t>
+  </si>
+  <si>
+    <t>21,874,055 </t>
+  </si>
+  <si>
+    <t>360,406 </t>
+  </si>
+  <si>
+    <t>102,946 </t>
+  </si>
+  <si>
+    <t>6,627,996 </t>
+  </si>
+  <si>
+    <t>2,030,769 </t>
+  </si>
+  <si>
+    <t>3,394,295 </t>
+  </si>
+  <si>
+    <t>274,803 </t>
+  </si>
+  <si>
+    <t>9,658,552 </t>
+  </si>
+  <si>
+    <t>10,869,958 </t>
+  </si>
+  <si>
+    <t>16,188,537 </t>
+  </si>
+  <si>
+    <t>7,265 </t>
+  </si>
+  <si>
+    <t>1,541,903 </t>
+  </si>
+  <si>
+    <t>670,227 </t>
+  </si>
+  <si>
+    <t>116,423 </t>
+  </si>
+  <si>
+    <t>599,997 </t>
+  </si>
+  <si>
+    <t>511,025 </t>
+  </si>
+  <si>
+    <t>17 </t>
+  </si>
+  <si>
+    <t>13,605,853 </t>
+  </si>
+  <si>
+    <t>668,346 </t>
+  </si>
+  <si>
+    <t>1,582,714 </t>
+  </si>
+  <si>
+    <t>183,444 </t>
+  </si>
+  <si>
+    <t>20,034 </t>
+  </si>
+  <si>
+    <t>2,484 </t>
+  </si>
+  <si>
+    <t>171,977 </t>
+  </si>
+  <si>
+    <t>275 </t>
+  </si>
+  <si>
+    <t>3,436 </t>
+  </si>
+  <si>
+    <t>2,792 </t>
+  </si>
+  <si>
+    <t>7,974 </t>
+  </si>
+  <si>
+    <t>3,013 </t>
+  </si>
+  <si>
+    <t>401,293 </t>
+  </si>
+  <si>
+    <t>214,691 </t>
+  </si>
+  <si>
+    <t>920,804 </t>
+  </si>
+  <si>
+    <t>136,368 </t>
+  </si>
+  <si>
+    <t>330,473 </t>
+  </si>
+  <si>
+    <t>178,104 </t>
+  </si>
+  <si>
+    <t>40,736 </t>
+  </si>
+  <si>
+    <t>518,441 </t>
+  </si>
+  <si>
+    <t>244,160 </t>
+  </si>
+  <si>
+    <t>2,461 </t>
+  </si>
+  <si>
+    <t>137,223 </t>
+  </si>
+  <si>
+    <t>379,806 </t>
+  </si>
+  <si>
+    <t>129,213 </t>
+  </si>
+  <si>
+    <t>226,075 </t>
+  </si>
+  <si>
+    <t>98,203 </t>
+  </si>
+  <si>
+    <t>22,351 </t>
+  </si>
+  <si>
+    <t>37,989 </t>
+  </si>
+  <si>
+    <t>148,725 </t>
+  </si>
+  <si>
+    <t>53,071 </t>
+  </si>
+  <si>
+    <t>328,495 </t>
+  </si>
+  <si>
+    <t>150,823 </t>
+  </si>
+  <si>
+    <t>43,794 </t>
+  </si>
+  <si>
+    <t>8,844 </t>
+  </si>
+  <si>
+    <t>1,127,260 </t>
+  </si>
+  <si>
+    <t>16,720 </t>
+  </si>
+  <si>
+    <t>20,117 </t>
+  </si>
+  <si>
+    <t>549 </t>
+  </si>
+  <si>
+    <t>186,821 </t>
+  </si>
+  <si>
+    <t>3,912 </t>
+  </si>
+  <si>
+    <t>42,065 </t>
+  </si>
+  <si>
+    <t>36,050 </t>
+  </si>
+  <si>
+    <t>3,224,345 </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>244,812 </t>
+  </si>
+  <si>
+    <t>260,825 </t>
+  </si>
+  <si>
+    <t>156,922 </t>
+  </si>
+  <si>
+    <t>142,644 </t>
+  </si>
+  <si>
+    <t>53,519 </t>
+  </si>
+  <si>
+    <t>15,400 </t>
+  </si>
+  <si>
+    <t>293,497 </t>
+  </si>
+  <si>
+    <t>238,439 </t>
+  </si>
+  <si>
+    <t>56,310 </t>
+  </si>
+  <si>
+    <t>4,578 </t>
+  </si>
+  <si>
+    <t>867 </t>
+  </si>
+  <si>
+    <t>3,688 </t>
+  </si>
+  <si>
+    <t>24,711 </t>
+  </si>
+  <si>
+    <t>1,898 </t>
+  </si>
+  <si>
+    <t>51,246 </t>
+  </si>
+  <si>
+    <t>1,992,436 </t>
+  </si>
+  <si>
+    <t>947,409 </t>
+  </si>
+  <si>
+    <t>7,139,999 </t>
+  </si>
+  <si>
+    <t>14,335,595 </t>
+  </si>
+  <si>
+    <t>4,743,104 </t>
+  </si>
+  <si>
+    <t>944,187 </t>
+  </si>
+  <si>
+    <t>4,311,583 </t>
+  </si>
+  <si>
+    <t>109,981 </t>
+  </si>
+  <si>
+    <t>6,585,400 </t>
+  </si>
+  <si>
+    <t>421,070 </t>
+  </si>
+  <si>
+    <t>443,153 </t>
+  </si>
+  <si>
+    <t>2,936,003 </t>
+  </si>
+  <si>
+    <t>45,493 </t>
+  </si>
+  <si>
+    <t>61 </t>
+  </si>
+  <si>
+    <t>733,683 </t>
+  </si>
+  <si>
+    <t>176,515 </t>
+  </si>
+  <si>
+    <t>611,603 </t>
+  </si>
+  <si>
+    <t>741 </t>
+  </si>
+  <si>
+    <t>867,388 </t>
+  </si>
+  <si>
+    <t>19,395 </t>
+  </si>
+  <si>
+    <t>17,298 </t>
+  </si>
+  <si>
+    <t>171,360 </t>
+  </si>
+  <si>
+    <t>866 </t>
+  </si>
+  <si>
+    <t>528,025 </t>
+  </si>
+  <si>
+    <t>1,910,011 </t>
+  </si>
+  <si>
+    <t>487,118 </t>
+  </si>
+  <si>
+    <t>540 </t>
+  </si>
+  <si>
+    <t>1,362,717 </t>
+  </si>
+  <si>
+    <t>3,327,042 </t>
+  </si>
+  <si>
+    <t>94,453 </t>
+  </si>
+  <si>
+    <t>117,289 </t>
+  </si>
+  <si>
+    <t>161,418 </t>
+  </si>
+  <si>
+    <t>88,459 </t>
+  </si>
+  <si>
+    <t>21,847 </t>
+  </si>
+  <si>
+    <t>218,012 </t>
+  </si>
+  <si>
+    <t>125,898 </t>
+  </si>
+  <si>
+    <t>11,493 </t>
+  </si>
+  <si>
+    <t>7,016,457 </t>
+  </si>
+  <si>
+    <t>789,583 </t>
+  </si>
+  <si>
+    <t>293,685 </t>
+  </si>
+  <si>
+    <t>129,100 </t>
+  </si>
+  <si>
+    <t>1,024,816 </t>
+  </si>
+  <si>
+    <t>419,942 </t>
+  </si>
+  <si>
+    <t>10,863 </t>
+  </si>
+  <si>
+    <t>13,054 </t>
+  </si>
+  <si>
+    <t>10,160 </t>
+  </si>
+  <si>
+    <t>72,970 </t>
+  </si>
+  <si>
+    <t>18,368 </t>
+  </si>
+  <si>
+    <t>22,664,978 </t>
+  </si>
+  <si>
+    <t>1,617,075 </t>
+  </si>
+  <si>
+    <t>3,124 </t>
+  </si>
+  <si>
+    <t>15,031 </t>
+  </si>
+  <si>
+    <t>5,758 </t>
+  </si>
+  <si>
+    <t>9,322 </t>
+  </si>
+  <si>
+    <t>106,753 </t>
+  </si>
+  <si>
+    <t>423 </t>
+  </si>
+  <si>
+    <t>8,069,868 </t>
+  </si>
+  <si>
+    <t>650 </t>
+  </si>
+  <si>
+    <t>2,669,734 </t>
+  </si>
+  <si>
+    <t>972,345 </t>
+  </si>
+  <si>
+    <t>2,797 </t>
+  </si>
+  <si>
+    <t>197,628 </t>
+  </si>
+  <si>
+    <t>115,682 </t>
+  </si>
+  <si>
+    <t>2,999 </t>
+  </si>
+  <si>
+    <t>157,562 </t>
+  </si>
+  <si>
+    <t>336,212 </t>
+  </si>
+  <si>
+    <t>1,550 </t>
+  </si>
+  <si>
+    <t>547 </t>
+  </si>
+  <si>
+    <t>5,965 </t>
+  </si>
+  <si>
+    <t>193,842 </t>
+  </si>
+  <si>
+    <t>18,345 </t>
+  </si>
+  <si>
+    <t>46,288 </t>
+  </si>
+  <si>
+    <t>81,031 </t>
+  </si>
+  <si>
+    <t>40,466 </t>
+  </si>
+  <si>
+    <t>2,294 </t>
+  </si>
+  <si>
+    <t>4,133,749 </t>
+  </si>
+  <si>
+    <t>64,842 </t>
+  </si>
+  <si>
+    <t>537,433 </t>
+  </si>
+  <si>
+    <t>163,593 </t>
+  </si>
+  <si>
+    <t>1,620,260 </t>
+  </si>
+  <si>
+    <t>85,356 </t>
+  </si>
+  <si>
+    <t>1,025 </t>
+  </si>
+  <si>
+    <t>329 </t>
+  </si>
+  <si>
+    <t>29,329 </t>
+  </si>
+  <si>
+    <t>79,605 </t>
+  </si>
+  <si>
+    <t>22,270 </t>
+  </si>
+  <si>
+    <t>62,634 </t>
+  </si>
+  <si>
+    <t>149 </t>
+  </si>
+  <si>
+    <t>482,639 </t>
+  </si>
+  <si>
+    <t>692,833 </t>
+  </si>
+  <si>
+    <t>3,194 </t>
+  </si>
+  <si>
+    <t>1,974 </t>
+  </si>
+  <si>
+    <t>4,161 </t>
+  </si>
+  <si>
+    <t>2,201 </t>
+  </si>
+  <si>
+    <t>54,066,562 </t>
+  </si>
+  <si>
+    <t>4,614,594 </t>
+  </si>
+  <si>
+    <t>49,446,360 </t>
+  </si>
+  <si>
+    <t>4,849 </t>
+  </si>
+  <si>
+    <t>728 </t>
+  </si>
+  <si>
+    <t>12,586,317 </t>
+  </si>
+  <si>
+    <t>10,693,783 </t>
+  </si>
+  <si>
+    <t>2,047 </t>
+  </si>
+  <si>
+    <t>36,115 </t>
+  </si>
+  <si>
+    <t>36 </t>
+  </si>
+  <si>
+    <t>72,798 </t>
+  </si>
+  <si>
+    <t>14,628 </t>
+  </si>
+  <si>
+    <t>1,222,973 </t>
+  </si>
+  <si>
+    <t>755 </t>
+  </si>
+  <si>
+    <t>242,866 </t>
+  </si>
+  <si>
+    <t>387 </t>
+  </si>
+  <si>
+    <t>58,358 </t>
+  </si>
+  <si>
+    <t>2,290 </t>
+  </si>
+  <si>
+    <t>7,398 </t>
+  </si>
+  <si>
+    <t>1,705 </t>
+  </si>
+  <si>
+    <t>371 </t>
+  </si>
+  <si>
+    <t>7,661 </t>
+  </si>
+  <si>
+    <t>213,938 </t>
+  </si>
+  <si>
+    <t>1,457 </t>
+  </si>
+  <si>
+    <t>6,297 </t>
+  </si>
+  <si>
+    <t>35 </t>
+  </si>
+  <si>
+    <t>418 </t>
+  </si>
+  <si>
+    <t>16,416 </t>
+  </si>
+  <si>
+    <t>43,322 </t>
+  </si>
+  <si>
+    <t>78,174 </t>
+  </si>
+  <si>
+    <t>1,033,713 </t>
+  </si>
+  <si>
+    <t>42,970 </t>
+  </si>
+  <si>
+    <t>630,329 </t>
+  </si>
+  <si>
+    <t>410,025 </t>
+  </si>
+  <si>
+    <t>28,811 </t>
+  </si>
+  <si>
+    <t>299,846 </t>
+  </si>
+  <si>
+    <t>23,432,047 </t>
+  </si>
+  <si>
+    <t>5,787,650 </t>
+  </si>
+  <si>
+    <t>2,769,864 </t>
+  </si>
+  <si>
+    <t>1,566,045 </t>
+  </si>
+  <si>
+    <t>762,597 </t>
+  </si>
+  <si>
+    <t>878,627 </t>
+  </si>
+  <si>
+    <t>11,208,533 </t>
+  </si>
+  <si>
+    <t>232,180 </t>
+  </si>
+  <si>
+    <t>248,660 </t>
+  </si>
+  <si>
+    <t>99,621 </t>
+  </si>
+  <si>
+    <t>158,902 </t>
+  </si>
+  <si>
+    <t>220,771 </t>
+  </si>
+  <si>
+    <t>3,225,463 </t>
+  </si>
+  <si>
+    <t>26,838 </t>
+  </si>
+  <si>
+    <t>144,570 </t>
+  </si>
+  <si>
+    <t>82,840 </t>
+  </si>
+  <si>
+    <t>229,469 </t>
+  </si>
+  <si>
+    <t>1,395,903 </t>
+  </si>
+  <si>
+    <t>6,079 </t>
+  </si>
+  <si>
+    <t>2,681,967 </t>
+  </si>
+  <si>
+    <t>133,432 </t>
+  </si>
+  <si>
+    <t>1,636,760 </t>
+  </si>
+  <si>
+    <t>3,701,706 </t>
+  </si>
+  <si>
+    <t>8,091,243 </t>
+  </si>
+  <si>
+    <t>333,885 </t>
+  </si>
+  <si>
+    <t>102,748 </t>
+  </si>
+  <si>
+    <t>3,302,001 </t>
+  </si>
+  <si>
+    <t>1,708,872 </t>
+  </si>
+  <si>
+    <t>2,588,109 </t>
+  </si>
+  <si>
+    <t>157,507 </t>
+  </si>
+  <si>
+    <t>5,968,259 </t>
+  </si>
+  <si>
+    <t>3,479,006 </t>
+  </si>
+  <si>
+    <t>7,250 </t>
+  </si>
+  <si>
+    <t>1,073,605 </t>
+  </si>
+  <si>
+    <t>667,238 </t>
+  </si>
+  <si>
+    <t>114,937 </t>
+  </si>
+  <si>
+    <t>48,877 </t>
+  </si>
+  <si>
+    <t>390,965 </t>
+  </si>
+  <si>
+    <t>8,043,495 </t>
+  </si>
+  <si>
+    <t>611,033 </t>
+  </si>
+  <si>
+    <t>191,456 </t>
+  </si>
+  <si>
+    <t>164,344 </t>
+  </si>
+  <si>
+    <t>18,657 </t>
+  </si>
+  <si>
+    <t>1,223 </t>
+  </si>
+  <si>
+    <t>104,948 </t>
+  </si>
+  <si>
+    <t>274 </t>
+  </si>
+  <si>
+    <t>3,433 </t>
+  </si>
+  <si>
+    <t>655 </t>
+  </si>
+  <si>
+    <t>7,970 </t>
+  </si>
+  <si>
+    <t>37,177 </t>
+  </si>
+  <si>
+    <t>214,690 </t>
+  </si>
+  <si>
+    <t>818,343 </t>
+  </si>
+  <si>
+    <t>15,214 </t>
+  </si>
+  <si>
+    <t>301,697 </t>
+  </si>
+  <si>
+    <t>35,326 </t>
+  </si>
+  <si>
+    <t>37,859 </t>
+  </si>
+  <si>
+    <t>400,239 </t>
+  </si>
+  <si>
+    <t>93,324 </t>
+  </si>
+  <si>
+    <t>2,448 </t>
+  </si>
+  <si>
+    <t>129,260 </t>
+  </si>
+  <si>
+    <t>361,573 </t>
+  </si>
+  <si>
+    <t>125,201 </t>
+  </si>
+  <si>
+    <t>84,008 </t>
+  </si>
+  <si>
+    <t>81,343 </t>
+  </si>
+  <si>
+    <t>22,016 </t>
+  </si>
+  <si>
+    <t>31,599 </t>
+  </si>
+  <si>
+    <t>79,149 </t>
+  </si>
+  <si>
+    <t>49,863 </t>
+  </si>
+  <si>
+    <t>264,489 </t>
+  </si>
+  <si>
+    <t>112,566 </t>
+  </si>
+  <si>
+    <t>32,412 </t>
+  </si>
+  <si>
+    <t>5,131 </t>
+  </si>
+  <si>
+    <t>1,083,335 </t>
+  </si>
+  <si>
+    <t>17,948 </t>
+  </si>
+  <si>
+    <t>181,302 </t>
+  </si>
+  <si>
+    <t>3,910 </t>
+  </si>
+  <si>
+    <t>17,590 </t>
+  </si>
+  <si>
+    <t>35,695 </t>
+  </si>
+  <si>
+    <t>1,252,748 </t>
+  </si>
+  <si>
+    <t>207,074 </t>
+  </si>
+  <si>
+    <t>248,409 </t>
+  </si>
+  <si>
+    <t>144,792 </t>
+  </si>
+  <si>
+    <t>128,312 </t>
+  </si>
+  <si>
+    <t>49,717 </t>
+  </si>
+  <si>
+    <t>15,020 </t>
+  </si>
+  <si>
+    <t>84,283 </t>
+  </si>
+  <si>
+    <t>55,914 </t>
+  </si>
+  <si>
+    <t>37,659 </t>
+  </si>
+  <si>
+    <t>3,839 </t>
+  </si>
+  <si>
+    <t>3,643 </t>
+  </si>
+  <si>
+    <t>4,761 </t>
+  </si>
+  <si>
+    <t>5,555 </t>
+  </si>
+  <si>
+    <t>1,400,769 </t>
+  </si>
+  <si>
+    <t>574,919 </t>
+  </si>
+  <si>
+    <t>5,307,167 </t>
+  </si>
+  <si>
+    <t>6,241,503 </t>
+  </si>
+  <si>
+    <t>2,417,727 </t>
+  </si>
+  <si>
+    <t>237,418 </t>
+  </si>
+  <si>
+    <t>2,473,325 </t>
+  </si>
+  <si>
+    <t>83,674 </t>
+  </si>
+  <si>
+    <t>5,832,327 </t>
+  </si>
+  <si>
+    <t>371,614 </t>
+  </si>
+  <si>
+    <t>270,769 </t>
+  </si>
+  <si>
+    <t>2,179,458 </t>
+  </si>
+  <si>
+    <t>38,027 </t>
+  </si>
+  <si>
+    <t>59 </t>
+  </si>
+  <si>
+    <t>218,533 </t>
+  </si>
+  <si>
+    <t>95,003 </t>
+  </si>
+  <si>
+    <t>259,322 </t>
+  </si>
+  <si>
+    <t>498,071 </t>
+  </si>
+  <si>
+    <t>7,328 </t>
+  </si>
+  <si>
+    <t>3,899 </t>
+  </si>
+  <si>
+    <t>137,823 </t>
+  </si>
+  <si>
+    <t>316 </t>
+  </si>
+  <si>
+    <t>223,038 </t>
+  </si>
+  <si>
+    <t>1,598,952 </t>
+  </si>
+  <si>
+    <t>337,753 </t>
+  </si>
+  <si>
+    <t>378 </t>
+  </si>
+  <si>
+    <t>664,113 </t>
+  </si>
+  <si>
+    <t>306,941 </t>
+  </si>
+  <si>
+    <t>76,924 </t>
+  </si>
+  <si>
+    <t>107,565 </t>
+  </si>
+  <si>
+    <t>141,901 </t>
+  </si>
+  <si>
+    <t>83,687 </t>
+  </si>
+  <si>
+    <t>12,738 </t>
+  </si>
+  <si>
+    <t>48,627 </t>
+  </si>
+  <si>
+    <t>100,298 </t>
+  </si>
+  <si>
+    <t>8,231 </t>
+  </si>
+  <si>
+    <t>3,960,063 </t>
+  </si>
+  <si>
+    <t>506,811 </t>
+  </si>
+  <si>
+    <t>250,887 </t>
+  </si>
+  <si>
+    <t>102,702 </t>
+  </si>
+  <si>
+    <t>718,961 </t>
+  </si>
+  <si>
+    <t>210,151 </t>
+  </si>
+  <si>
+    <t>5,492 </t>
+  </si>
+  <si>
+    <t>8,355 </t>
+  </si>
+  <si>
+    <t>152 </t>
+  </si>
+  <si>
+    <t>50,795 </t>
+  </si>
+  <si>
+    <t>11,756 </t>
+  </si>
+  <si>
+    <t>11,595,854 </t>
+  </si>
+  <si>
+    <t>4,107 </t>
+  </si>
+  <si>
+    <t>872,598 </t>
+  </si>
+  <si>
+    <t>3,123 </t>
+  </si>
+  <si>
+    <t>12,635 </t>
+  </si>
+  <si>
+    <t>4,145 </t>
+  </si>
+  <si>
+    <t>9,321 </t>
+  </si>
+  <si>
+    <t>73,774 </t>
+  </si>
+  <si>
+    <t>2,649,916 </t>
+  </si>
+  <si>
+    <t>1,292,293 </t>
+  </si>
+  <si>
+    <t>636,426 </t>
+  </si>
+  <si>
+    <t>2,794 </t>
+  </si>
+  <si>
+    <t>128,104 </t>
+  </si>
+  <si>
+    <t>101,627 </t>
+  </si>
+  <si>
+    <t>145,909 </t>
+  </si>
+  <si>
+    <t>234,080 </t>
+  </si>
+  <si>
+    <t>1,530 </t>
+  </si>
+  <si>
+    <t>546 </t>
+  </si>
+  <si>
+    <t>5,964 </t>
+  </si>
+  <si>
+    <t>176,411 </t>
+  </si>
+  <si>
+    <t>15,995 </t>
+  </si>
+  <si>
+    <t>45,670 </t>
+  </si>
+  <si>
+    <t>79,134 </t>
+  </si>
+  <si>
+    <t>37,941 </t>
+  </si>
+  <si>
+    <t>3,176,578 </t>
+  </si>
+  <si>
+    <t>62,098 </t>
+  </si>
+  <si>
+    <t>530,917 </t>
+  </si>
+  <si>
+    <t>159,695 </t>
+  </si>
+  <si>
+    <t>595,868 </t>
+  </si>
+  <si>
+    <t>47,829 </t>
+  </si>
+  <si>
+    <t>1,021 </t>
+  </si>
+  <si>
+    <t>29,299 </t>
+  </si>
+  <si>
+    <t>73,273 </t>
+  </si>
+  <si>
+    <t>19,841 </t>
+  </si>
+  <si>
+    <t>39,066 </t>
+  </si>
+  <si>
+    <t>148 </t>
+  </si>
+  <si>
+    <t>196,432 </t>
+  </si>
+  <si>
+    <t>113,665 </t>
+  </si>
+  <si>
+    <t>1,927 </t>
+  </si>
+  <si>
+    <t>106 </t>
+  </si>
+  <si>
+    <t>40,366,674 </t>
+  </si>
+  <si>
+    <t>3,028,065 </t>
+  </si>
+  <si>
+    <t>37,337,830 </t>
+  </si>
+  <si>
+    <t>4,175,698 </t>
+  </si>
+  <si>
+    <t>3,373,278 </t>
+  </si>
+  <si>
+    <t>426 </t>
+  </si>
+  <si>
+    <t>35,639 </t>
+  </si>
+  <si>
+    <t>19 </t>
+  </si>
+  <si>
+    <t>8,245 </t>
+  </si>
+  <si>
+    <t>9,120 </t>
+  </si>
+  <si>
+    <t>429,057 </t>
+  </si>
+  <si>
+    <t>72,159 </t>
+  </si>
+  <si>
+    <t>8,610 </t>
+  </si>
+  <si>
+    <t>7,382 </t>
+  </si>
+  <si>
+    <t>1,423 </t>
+  </si>
+  <si>
+    <t>4,939 </t>
+  </si>
+  <si>
+    <t>5,749 </t>
+  </si>
+  <si>
+    <t>261 </t>
+  </si>
+  <si>
+    <t>11,480 </t>
+  </si>
+  <si>
+    <t>68,808 </t>
+  </si>
+  <si>
+    <t>5,405 </t>
+  </si>
+  <si>
+    <t>451,785 </t>
+  </si>
+  <si>
+    <t>101,331 </t>
+  </si>
+  <si>
+    <t>6,081 </t>
+  </si>
+  <si>
+    <t>156,315 </t>
+  </si>
+  <si>
+    <t>500,662 </t>
+  </si>
+  <si>
+    <t>1,109,861 </t>
+  </si>
+  <si>
+    <t>1,894,464 </t>
+  </si>
+  <si>
+    <t>1,220,507 </t>
+  </si>
+  <si>
+    <t>1,187,482 </t>
+  </si>
+  <si>
+    <t>373,392 </t>
+  </si>
+  <si>
+    <t>13,586,937 </t>
+  </si>
+  <si>
+    <t>21,911 </t>
+  </si>
+  <si>
+    <t>612,094 </t>
+  </si>
+  <si>
+    <t>115,351 </t>
+  </si>
+  <si>
+    <t>3,516 </t>
+  </si>
+  <si>
+    <t>8,317 </t>
+  </si>
+  <si>
+    <t>4,222,733 </t>
+  </si>
+  <si>
+    <t>76 </t>
+  </si>
+  <si>
+    <t>371,775 </t>
+  </si>
+  <si>
+    <t>1,401 </t>
+  </si>
+  <si>
+    <t>898,151 </t>
+  </si>
+  <si>
+    <t>125,423 </t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>1,565,035 </t>
+  </si>
+  <si>
+    <t>420,642 </t>
+  </si>
+  <si>
+    <t>2,143,301 </t>
+  </si>
+  <si>
+    <t>2,518,138 </t>
+  </si>
+  <si>
+    <t>13,782,812 </t>
+  </si>
+  <si>
+    <t>26,521 </t>
+  </si>
+  <si>
+    <t>198 </t>
+  </si>
+  <si>
+    <t>3,325,994 </t>
+  </si>
+  <si>
+    <t>321,897 </t>
+  </si>
+  <si>
+    <t>806,185 </t>
+  </si>
+  <si>
+    <t>117,295 </t>
+  </si>
+  <si>
+    <t>3,690,294 </t>
+  </si>
+  <si>
+    <t>12,709,531 </t>
+  </si>
+  <si>
+    <t>468,298 </t>
+  </si>
+  <si>
+    <t>2,990 </t>
+  </si>
+  <si>
+    <t>1,486 </t>
+  </si>
+  <si>
+    <t>551,120 </t>
+  </si>
+  <si>
+    <t>120,061 </t>
+  </si>
+  <si>
+    <t>5,562,358 </t>
+  </si>
+  <si>
+    <t>1,391,258 </t>
+  </si>
+  <si>
+    <t>19,099 </t>
+  </si>
+  <si>
+    <t>1,377 </t>
+  </si>
+  <si>
+    <t>1,262 </t>
+  </si>
+  <si>
+    <t>67,029 </t>
+  </si>
+  <si>
+    <t>2,138 </t>
+  </si>
+  <si>
+    <t>364,116 </t>
+  </si>
+  <si>
+    <t>102,462 </t>
+  </si>
+  <si>
+    <t>121,154 </t>
+  </si>
+  <si>
+    <t>28,775 </t>
+  </si>
+  <si>
+    <t>142,778 </t>
+  </si>
+  <si>
+    <t>2,877 </t>
+  </si>
+  <si>
+    <t>118,202 </t>
+  </si>
+  <si>
+    <t>150,836 </t>
+  </si>
+  <si>
+    <t>7,963 </t>
+  </si>
+  <si>
+    <t>18,233 </t>
+  </si>
+  <si>
+    <t>4,012 </t>
+  </si>
+  <si>
+    <t>142,067 </t>
+  </si>
+  <si>
+    <t>16,860 </t>
+  </si>
+  <si>
+    <t>336 </t>
+  </si>
+  <si>
+    <t>6,390 </t>
+  </si>
+  <si>
+    <t>69,576 </t>
+  </si>
+  <si>
+    <t>3,208 </t>
+  </si>
+  <si>
+    <t>64,006 </t>
+  </si>
+  <si>
+    <t>38,257 </t>
+  </si>
+  <si>
+    <t>11,382 </t>
+  </si>
+  <si>
+    <t>3,712 </t>
+  </si>
+  <si>
+    <t>43,925 </t>
+  </si>
+  <si>
+    <t>2,169 </t>
+  </si>
+  <si>
+    <t>5,520 </t>
+  </si>
+  <si>
+    <t>24,475 </t>
+  </si>
+  <si>
+    <t>355 </t>
+  </si>
+  <si>
+    <t>1,971,597 </t>
+  </si>
+  <si>
+    <t>37,738 </t>
+  </si>
+  <si>
+    <t>12,416 </t>
+  </si>
+  <si>
+    <t>12,130 </t>
+  </si>
+  <si>
+    <t>14,332 </t>
+  </si>
+  <si>
+    <t>3,802 </t>
+  </si>
+  <si>
+    <t>380 </t>
+  </si>
+  <si>
+    <t>209,214 </t>
+  </si>
+  <si>
+    <t>182,525 </t>
+  </si>
+  <si>
+    <t>18,651 </t>
+  </si>
+  <si>
+    <t>740 </t>
+  </si>
+  <si>
+    <t>45 </t>
+  </si>
+  <si>
+    <t>19,950 </t>
+  </si>
+  <si>
+    <t>45,691 </t>
+  </si>
+  <si>
+    <t>591,667 </t>
+  </si>
+  <si>
+    <t>372,490 </t>
+  </si>
+  <si>
+    <t>1,832,832 </t>
+  </si>
+  <si>
+    <t>8,094,091 </t>
+  </si>
+  <si>
+    <t>2,325,377 </t>
+  </si>
+  <si>
+    <t>706,770 </t>
+  </si>
+  <si>
+    <t>1,838,259 </t>
+  </si>
+  <si>
+    <t>26,307 </t>
+  </si>
+  <si>
+    <t>753,073 </t>
+  </si>
+  <si>
+    <t>49,456 </t>
+  </si>
+  <si>
+    <t>172,384 </t>
+  </si>
+  <si>
+    <t>756,545 </t>
+  </si>
+  <si>
+    <t>7,466 </t>
+  </si>
+  <si>
+    <t>515,150 </t>
+  </si>
+  <si>
+    <t>81,511 </t>
+  </si>
+  <si>
+    <t>352,281 </t>
+  </si>
+  <si>
+    <t>369,317 </t>
+  </si>
+  <si>
+    <t>12,067 </t>
+  </si>
+  <si>
+    <t>13,399 </t>
+  </si>
+  <si>
+    <t>33,536 </t>
+  </si>
+  <si>
+    <t>550 </t>
+  </si>
+  <si>
+    <t>304,987 </t>
+  </si>
+  <si>
+    <t>311,059 </t>
+  </si>
+  <si>
+    <t>149,364 </t>
+  </si>
+  <si>
+    <t>161 </t>
+  </si>
+  <si>
+    <t>698,604 </t>
+  </si>
+  <si>
+    <t>3,020,100 </t>
+  </si>
+  <si>
+    <t>17,530 </t>
+  </si>
+  <si>
+    <t>9,724 </t>
+  </si>
+  <si>
+    <t>19,517 </t>
+  </si>
+  <si>
+    <t>4,772 </t>
+  </si>
+  <si>
+    <t>9,109 </t>
+  </si>
+  <si>
+    <t>169,385 </t>
+  </si>
+  <si>
+    <t>25,600 </t>
+  </si>
+  <si>
+    <t>3,262 </t>
+  </si>
+  <si>
+    <t>3,056,394 </t>
+  </si>
+  <si>
+    <t>282,772 </t>
+  </si>
+  <si>
+    <t>42,798 </t>
+  </si>
+  <si>
+    <t>26,398 </t>
+  </si>
+  <si>
+    <t>305,855 </t>
+  </si>
+  <si>
+    <t>209,791 </t>
+  </si>
+  <si>
+    <t>5,370 </t>
+  </si>
+  <si>
+    <t>4,699 </t>
+  </si>
+  <si>
+    <t>10,008 </t>
+  </si>
+  <si>
+    <t>22,175 </t>
+  </si>
+  <si>
+    <t>6,612 </t>
+  </si>
+  <si>
+    <t>11,069,124 </t>
+  </si>
+  <si>
+    <t>744,477 </t>
+  </si>
+  <si>
+    <t>2,397 </t>
+  </si>
+  <si>
+    <t>1,613 </t>
+  </si>
+  <si>
+    <t>32,980 </t>
+  </si>
+  <si>
+    <t>5,419,952 </t>
+  </si>
+  <si>
+    <t>1,377,441 </t>
+  </si>
+  <si>
+    <t>335,919 </t>
+  </si>
+  <si>
+    <t>69,524 </t>
+  </si>
+  <si>
+    <t>14,055 </t>
+  </si>
+  <si>
+    <t>11,653 </t>
+  </si>
+  <si>
+    <t>102,133 </t>
+  </si>
+  <si>
+    <t>17,431 </t>
+  </si>
+  <si>
+    <t>2,350 </t>
+  </si>
+  <si>
+    <t>617 </t>
+  </si>
+  <si>
+    <t>1,897 </t>
+  </si>
+  <si>
+    <t>2,526 </t>
+  </si>
+  <si>
+    <t>957,172 </t>
+  </si>
+  <si>
+    <t>2,744 </t>
+  </si>
+  <si>
+    <t>6,516 </t>
+  </si>
+  <si>
+    <t>3,898 </t>
+  </si>
+  <si>
+    <t>1,024,392 </t>
+  </si>
+  <si>
+    <t>37,527 </t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
+  <si>
+    <t>6,331 </t>
+  </si>
+  <si>
+    <t>2,430 </t>
+  </si>
+  <si>
+    <t>23,568 </t>
+  </si>
+  <si>
+    <t>286,207 </t>
+  </si>
+  <si>
+    <t>579,169 </t>
+  </si>
+  <si>
+    <t>48 </t>
+  </si>
+  <si>
+    <t>2,095 </t>
+  </si>
+  <si>
+    <t>13,699,887 </t>
+  </si>
+  <si>
+    <t>1,586,529 </t>
+  </si>
+  <si>
+    <t>12,108,531 </t>
+  </si>
+  <si>
+    <t>4,828 </t>
+  </si>
+  <si>
+    <t>8,410,619 </t>
+  </si>
+  <si>
+    <t>7,320,505 </t>
+  </si>
+  <si>
+    <t>1,622 </t>
+  </si>
+  <si>
+    <t>476 </t>
+  </si>
+  <si>
+    <t>64,552 </t>
+  </si>
+  <si>
+    <t>5,508 </t>
+  </si>
+  <si>
+    <t>793,916 </t>
+  </si>
+  <si>
+    <t>170,707 </t>
+  </si>
+  <si>
+    <t>49,748 </t>
+  </si>
+  <si>
+    <t>16 </t>
+  </si>
+  <si>
+    <t>282 </t>
+  </si>
+  <si>
+    <t>2,723 </t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3084,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3094,10 +3100,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>853</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>854</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16">
@@ -3105,13 +3111,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>696</v>
       </c>
       <c r="E2" s="3">
         <v>2017</v>
@@ -3129,13 +3135,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>493</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>697</v>
       </c>
       <c r="E3" s="3">
         <v>2017</v>
@@ -3153,13 +3159,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>494</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>229</v>
+        <v>698</v>
       </c>
       <c r="E4" s="3">
         <v>2017</v>
@@ -3177,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E5" s="3">
         <v>2017</v>
@@ -3201,13 +3207,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>234</v>
+        <v>699</v>
       </c>
       <c r="E6" s="3">
         <v>2017</v>
@@ -3225,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>236</v>
+        <v>496</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>237</v>
+        <v>700</v>
       </c>
       <c r="E7" s="3">
         <v>2017</v>
@@ -3249,13 +3255,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>497</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>240</v>
+        <v>701</v>
       </c>
       <c r="E8" s="3">
         <v>2017</v>
@@ -3273,13 +3279,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>242</v>
+        <v>498</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>243</v>
+        <v>702</v>
       </c>
       <c r="E9" s="3">
         <v>2017</v>
@@ -3297,13 +3303,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>245</v>
+        <v>499</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>246</v>
+        <v>703</v>
       </c>
       <c r="E10" s="3">
         <v>2017</v>
@@ -3318,16 +3324,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>249</v>
+        <v>500</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>250</v>
+        <v>704</v>
       </c>
       <c r="E11" s="3">
         <v>2017</v>
@@ -3345,13 +3351,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>252</v>
+        <v>501</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>253</v>
+        <v>705</v>
       </c>
       <c r="E12" s="3">
         <v>2017</v>
@@ -3369,13 +3375,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>255</v>
+        <v>502</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>256</v>
+        <v>706</v>
       </c>
       <c r="E13" s="3">
         <v>2017</v>
@@ -3393,13 +3399,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>258</v>
+        <v>503</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>259</v>
+        <v>707</v>
       </c>
       <c r="E14" s="3">
         <v>2017</v>
@@ -3417,13 +3423,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>261</v>
+        <v>504</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>262</v>
+        <v>708</v>
       </c>
       <c r="E15" s="3">
         <v>2017</v>
@@ -3441,13 +3447,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>264</v>
+        <v>505</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>265</v>
+        <v>709</v>
       </c>
       <c r="E16" s="3">
         <v>2017</v>
@@ -3465,13 +3471,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>267</v>
+        <v>506</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>268</v>
+        <v>710</v>
       </c>
       <c r="E17" s="3">
         <v>2017</v>
@@ -3489,13 +3495,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>271</v>
+        <v>711</v>
       </c>
       <c r="E18" s="3">
         <v>2017</v>
@@ -3513,13 +3519,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>273</v>
+        <v>508</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>274</v>
+        <v>712</v>
       </c>
       <c r="E19" s="3">
         <v>2017</v>
@@ -3537,13 +3543,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>276</v>
+        <v>509</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>713</v>
       </c>
       <c r="E20" s="3">
         <v>2017</v>
@@ -3561,13 +3567,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>279</v>
+        <v>510</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>280</v>
+        <v>714</v>
       </c>
       <c r="E21" s="3">
         <v>2017</v>
@@ -3582,16 +3588,16 @@
     </row>
     <row r="22" spans="1:10" ht="16">
       <c r="A22" s="4" t="s">
-        <v>855</v>
+        <v>237</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>282</v>
+        <v>511</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>283</v>
+        <v>715</v>
       </c>
       <c r="E22" s="3">
         <v>2017</v>
@@ -3606,16 +3612,16 @@
     </row>
     <row r="23" spans="1:10" ht="16">
       <c r="A23" s="4" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>286</v>
+        <v>512</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>287</v>
+        <v>716</v>
       </c>
       <c r="E23" s="3">
         <v>2017</v>
@@ -3633,13 +3639,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>289</v>
+        <v>513</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>290</v>
+        <v>717</v>
       </c>
       <c r="E24" s="3">
         <v>2017</v>
@@ -3657,13 +3663,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>292</v>
+        <v>514</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>293</v>
+        <v>718</v>
       </c>
       <c r="E25" s="3">
         <v>2017</v>
@@ -3678,16 +3684,16 @@
     </row>
     <row r="26" spans="1:10" ht="16">
       <c r="A26" s="4" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>295</v>
+        <v>515</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>296</v>
+        <v>719</v>
       </c>
       <c r="E26" s="3">
         <v>2017</v>
@@ -3705,13 +3711,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>298</v>
+        <v>516</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>299</v>
+        <v>720</v>
       </c>
       <c r="E27" s="3">
         <v>2017</v>
@@ -3729,13 +3735,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>302</v>
+        <v>721</v>
       </c>
       <c r="E28" s="3">
         <v>2017</v>
@@ -3753,13 +3759,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>304</v>
+        <v>518</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>305</v>
+        <v>722</v>
       </c>
       <c r="E29" s="3">
         <v>2017</v>
@@ -3777,13 +3783,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>307</v>
+        <v>519</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>308</v>
+        <v>723</v>
       </c>
       <c r="E30" s="3">
         <v>2017</v>
@@ -3801,13 +3807,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>311</v>
+        <v>724</v>
       </c>
       <c r="E31" s="3">
         <v>2017</v>
@@ -3825,13 +3831,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>313</v>
+        <v>521</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>314</v>
+        <v>725</v>
       </c>
       <c r="E32" s="3">
         <v>2017</v>
@@ -3849,13 +3855,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>316</v>
+        <v>522</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>317</v>
+        <v>726</v>
       </c>
       <c r="E33" s="3">
         <v>2017</v>
@@ -3873,13 +3879,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>319</v>
+        <v>523</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>320</v>
+        <v>727</v>
       </c>
       <c r="E34" s="3">
         <v>2017</v>
@@ -3897,13 +3903,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>322</v>
+        <v>524</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>323</v>
+        <v>728</v>
       </c>
       <c r="E35" s="3">
         <v>2017</v>
@@ -3921,13 +3927,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>325</v>
+        <v>525</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>326</v>
+        <v>729</v>
       </c>
       <c r="E36" s="3">
         <v>2017</v>
@@ -3945,13 +3951,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>329</v>
+        <v>730</v>
       </c>
       <c r="E37" s="3">
         <v>2017</v>
@@ -3969,13 +3975,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>331</v>
+        <v>527</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>332</v>
+        <v>731</v>
       </c>
       <c r="E38" s="3">
         <v>2017</v>
@@ -3993,13 +3999,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>335</v>
+        <v>732</v>
       </c>
       <c r="E39" s="3">
         <v>2017</v>
@@ -4017,13 +4023,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>337</v>
+        <v>529</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>338</v>
+        <v>733</v>
       </c>
       <c r="E40" s="3">
         <v>2017</v>
@@ -4041,13 +4047,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>340</v>
+        <v>530</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>341</v>
+        <v>734</v>
       </c>
       <c r="E41" s="3">
         <v>2017</v>
@@ -4065,13 +4071,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="E42" s="3">
         <v>2017</v>
@@ -4086,16 +4092,16 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="5" t="s">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>345</v>
+        <v>531</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>346</v>
+        <v>735</v>
       </c>
       <c r="E43" s="3">
         <v>2017</v>
@@ -4113,13 +4119,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>348</v>
+        <v>532</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="E44" s="3">
         <v>2017</v>
@@ -4137,13 +4143,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>351</v>
+        <v>533</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>352</v>
+        <v>736</v>
       </c>
       <c r="E45" s="3">
         <v>2017</v>
@@ -4161,13 +4167,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>354</v>
+        <v>534</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>355</v>
+        <v>737</v>
       </c>
       <c r="E46" s="3">
         <v>2017</v>
@@ -4185,13 +4191,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>357</v>
+        <v>535</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>358</v>
+        <v>738</v>
       </c>
       <c r="E47" s="3">
         <v>2017</v>
@@ -4209,13 +4215,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>360</v>
+        <v>536</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>361</v>
+        <v>739</v>
       </c>
       <c r="E48" s="3">
         <v>2017</v>
@@ -4230,16 +4236,16 @@
     </row>
     <row r="49" spans="1:10" ht="16">
       <c r="A49" s="4" t="s">
-        <v>857</v>
+        <v>239</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>363</v>
+        <v>537</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>364</v>
+        <v>740</v>
       </c>
       <c r="E49" s="3">
         <v>2017</v>
@@ -4257,10 +4263,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
@@ -4281,13 +4287,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>367</v>
+        <v>538</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>368</v>
+        <v>741</v>
       </c>
       <c r="E51" s="3">
         <v>2017</v>
@@ -4305,13 +4311,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>370</v>
+        <v>539</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="E52" s="3">
         <v>2017</v>
@@ -4329,13 +4335,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>373</v>
+        <v>540</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>374</v>
+        <v>742</v>
       </c>
       <c r="E53" s="3">
         <v>2017</v>
@@ -4353,13 +4359,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>377</v>
+        <v>743</v>
       </c>
       <c r="E54" s="3">
         <v>2017</v>
@@ -4377,13 +4383,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>380</v>
+        <v>744</v>
       </c>
       <c r="E55" s="3">
         <v>2017</v>
@@ -4401,13 +4407,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>382</v>
+        <v>543</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>383</v>
+        <v>745</v>
       </c>
       <c r="E56" s="3">
         <v>2017</v>
@@ -4422,16 +4428,16 @@
     </row>
     <row r="57" spans="1:10" ht="16">
       <c r="A57" s="4" t="s">
-        <v>858</v>
+        <v>240</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>385</v>
+        <v>544</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>386</v>
+        <v>746</v>
       </c>
       <c r="E57" s="3">
         <v>2017</v>
@@ -4449,13 +4455,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>387</v>
+        <v>317</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="E58" s="3">
         <v>2017</v>
@@ -4473,13 +4479,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>391</v>
+        <v>546</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="E59" s="3">
         <v>2017</v>
@@ -4497,13 +4503,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>394</v>
+        <v>547</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>395</v>
+        <v>747</v>
       </c>
       <c r="E60" s="3">
         <v>2017</v>
@@ -4521,13 +4527,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E61" s="3">
         <v>2017</v>
@@ -4545,13 +4551,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>397</v>
+        <v>548</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="E62" s="3">
         <v>2017</v>
@@ -4569,13 +4575,13 @@
         <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E63" s="3">
         <v>2017</v>
@@ -4593,13 +4599,13 @@
         <v>59</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>401</v>
+        <v>748</v>
       </c>
       <c r="E64" s="3">
         <v>2017</v>
@@ -4617,13 +4623,13 @@
         <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>403</v>
+        <v>550</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="E65" s="3">
         <v>2017</v>
@@ -4641,13 +4647,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>405</v>
+        <v>551</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>406</v>
+        <v>749</v>
       </c>
       <c r="E66" s="3">
         <v>2017</v>
@@ -4665,13 +4671,13 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>409</v>
+        <v>750</v>
       </c>
       <c r="E67" s="3">
         <v>2017</v>
@@ -4689,13 +4695,13 @@
         <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>411</v>
+        <v>553</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>412</v>
+        <v>751</v>
       </c>
       <c r="E68" s="3">
         <v>2017</v>
@@ -4713,13 +4719,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>414</v>
+        <v>554</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>415</v>
+        <v>752</v>
       </c>
       <c r="E69" s="3">
         <v>2017</v>
@@ -4737,13 +4743,13 @@
         <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>417</v>
+        <v>555</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>418</v>
+        <v>753</v>
       </c>
       <c r="E70" s="3">
         <v>2017</v>
@@ -4761,13 +4767,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>420</v>
+        <v>556</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>421</v>
+        <v>754</v>
       </c>
       <c r="E71" s="3">
         <v>2017</v>
@@ -4785,13 +4791,13 @@
         <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>423</v>
+        <v>557</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>424</v>
+        <v>755</v>
       </c>
       <c r="E72" s="3">
         <v>2017</v>
@@ -4809,13 +4815,13 @@
         <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="E73" s="3">
         <v>2017</v>
@@ -4833,13 +4839,13 @@
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>429</v>
+        <v>559</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>430</v>
+        <v>756</v>
       </c>
       <c r="E74" s="3">
         <v>2017</v>
@@ -4857,13 +4863,13 @@
         <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>432</v>
+        <v>560</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>433</v>
+        <v>757</v>
       </c>
       <c r="E75" s="3">
         <v>2017</v>
@@ -4881,13 +4887,13 @@
         <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>435</v>
+        <v>561</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>436</v>
+        <v>758</v>
       </c>
       <c r="E76" s="3">
         <v>2017</v>
@@ -4905,13 +4911,13 @@
         <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>439</v>
+        <v>759</v>
       </c>
       <c r="E77" s="3">
         <v>2017</v>
@@ -4929,13 +4935,13 @@
         <v>73</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>441</v>
+        <v>563</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>442</v>
+        <v>760</v>
       </c>
       <c r="E78" s="3">
         <v>2017</v>
@@ -4953,13 +4959,13 @@
         <v>74</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>443</v>
+        <v>337</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>445</v>
+        <v>761</v>
       </c>
       <c r="E79" s="3">
         <v>2017</v>
@@ -4974,16 +4980,16 @@
     </row>
     <row r="80" spans="1:10" ht="16">
       <c r="A80" s="4" t="s">
-        <v>859</v>
+        <v>241</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>447</v>
+        <v>565</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>448</v>
+        <v>762</v>
       </c>
       <c r="E80" s="3">
         <v>2017</v>
@@ -5001,13 +5007,13 @@
         <v>75</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>451</v>
+        <v>763</v>
       </c>
       <c r="E81" s="3">
         <v>2017</v>
@@ -5025,13 +5031,13 @@
         <v>76</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>453</v>
+        <v>567</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>454</v>
+        <v>764</v>
       </c>
       <c r="E82" s="3">
         <v>2017</v>
@@ -5049,13 +5055,13 @@
         <v>77</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>456</v>
+        <v>568</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>457</v>
+        <v>765</v>
       </c>
       <c r="E83" s="3">
         <v>2017</v>
@@ -5073,13 +5079,13 @@
         <v>78</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>459</v>
+        <v>569</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>460</v>
+        <v>766</v>
       </c>
       <c r="E84" s="3">
         <v>2017</v>
@@ -5097,13 +5103,13 @@
         <v>79</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>462</v>
+        <v>570</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>463</v>
+        <v>767</v>
       </c>
       <c r="E85" s="3">
         <v>2017</v>
@@ -5121,13 +5127,13 @@
         <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>466</v>
+        <v>768</v>
       </c>
       <c r="E86" s="3">
         <v>2017</v>
@@ -5145,13 +5151,13 @@
         <v>81</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>467</v>
+        <v>345</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>468</v>
+        <v>572</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>469</v>
+        <v>769</v>
       </c>
       <c r="E87" s="3">
         <v>2017</v>
@@ -5169,13 +5175,13 @@
         <v>82</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>470</v>
+        <v>346</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>470</v>
+        <v>346</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E88" s="3">
         <v>2017</v>
@@ -5193,13 +5199,13 @@
         <v>83</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>471</v>
+        <v>347</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>472</v>
+        <v>573</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>473</v>
+        <v>770</v>
       </c>
       <c r="E89" s="3">
         <v>2017</v>
@@ -5217,13 +5223,13 @@
         <v>84</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E90" s="3">
         <v>2017</v>
@@ -5241,13 +5247,13 @@
         <v>85</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>476</v>
+        <v>574</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>477</v>
+        <v>771</v>
       </c>
       <c r="E91" s="3">
         <v>2017</v>
@@ -5265,13 +5271,13 @@
         <v>86</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>479</v>
+        <v>575</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="E92" s="3">
         <v>2017</v>
@@ -5289,13 +5295,13 @@
         <v>87</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>480</v>
+        <v>351</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>481</v>
+        <v>576</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>482</v>
+        <v>772</v>
       </c>
       <c r="E93" s="3">
         <v>2017</v>
@@ -5313,13 +5319,13 @@
         <v>88</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>484</v>
+        <v>577</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>485</v>
+        <v>773</v>
       </c>
       <c r="E94" s="3">
         <v>2017</v>
@@ -5334,16 +5340,16 @@
     </row>
     <row r="95" spans="1:10" ht="16">
       <c r="A95" s="4" t="s">
-        <v>860</v>
+        <v>242</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>488</v>
+        <v>774</v>
       </c>
       <c r="E95" s="3">
         <v>2017</v>
@@ -5361,13 +5367,13 @@
         <v>89</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E96" s="3">
         <v>2017</v>
@@ -5385,13 +5391,13 @@
         <v>90</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>490</v>
+        <v>355</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>492</v>
+        <v>775</v>
       </c>
       <c r="E97" s="3">
         <v>2017</v>
@@ -5409,13 +5415,13 @@
         <v>91</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>493</v>
+        <v>356</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>494</v>
+        <v>580</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>495</v>
+        <v>776</v>
       </c>
       <c r="E98" s="3">
         <v>2017</v>
@@ -5433,13 +5439,13 @@
         <v>92</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>496</v>
+        <v>357</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>498</v>
+        <v>777</v>
       </c>
       <c r="E99" s="3">
         <v>2017</v>
@@ -5457,13 +5463,13 @@
         <v>93</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>499</v>
+        <v>358</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>500</v>
+        <v>582</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>501</v>
+        <v>778</v>
       </c>
       <c r="E100" s="3">
         <v>2017</v>
@@ -5481,13 +5487,13 @@
         <v>94</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>502</v>
+        <v>359</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>504</v>
+        <v>779</v>
       </c>
       <c r="E101" s="3">
         <v>2017</v>
@@ -5505,13 +5511,13 @@
         <v>95</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>505</v>
+        <v>360</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>507</v>
+        <v>780</v>
       </c>
       <c r="E102" s="3">
         <v>2017</v>
@@ -5529,13 +5535,13 @@
         <v>96</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>508</v>
+        <v>361</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>510</v>
+        <v>781</v>
       </c>
       <c r="E103" s="3">
         <v>2017</v>
@@ -5550,16 +5556,16 @@
     </row>
     <row r="104" spans="1:10" ht="16">
       <c r="A104" s="4" t="s">
-        <v>861</v>
+        <v>243</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>511</v>
+        <v>362</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>513</v>
+        <v>782</v>
       </c>
       <c r="E104" s="3">
         <v>2017</v>
@@ -5577,13 +5583,13 @@
         <v>97</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>516</v>
+        <v>783</v>
       </c>
       <c r="E105" s="3">
         <v>2017</v>
@@ -5598,16 +5604,16 @@
     </row>
     <row r="106" spans="1:10" ht="16">
       <c r="A106" s="4" t="s">
-        <v>862</v>
+        <v>244</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>517</v>
+        <v>364</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>519</v>
+        <v>784</v>
       </c>
       <c r="E106" s="3">
         <v>2017</v>
@@ -5625,13 +5631,13 @@
         <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E107" s="3">
         <v>2017</v>
@@ -5649,13 +5655,13 @@
         <v>99</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>523</v>
+        <v>785</v>
       </c>
       <c r="E108" s="3">
         <v>2017</v>
@@ -5673,13 +5679,13 @@
         <v>100</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>524</v>
+        <v>367</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>526</v>
+        <v>786</v>
       </c>
       <c r="E109" s="3">
         <v>2017</v>
@@ -5697,13 +5703,13 @@
         <v>101</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>527</v>
+        <v>368</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>528</v>
+        <v>368</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E110" s="3">
         <v>2017</v>
@@ -5721,13 +5727,13 @@
         <v>102</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>529</v>
+        <v>369</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>531</v>
+        <v>787</v>
       </c>
       <c r="E111" s="3">
         <v>2017</v>
@@ -5745,13 +5751,13 @@
         <v>103</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E112" s="3">
         <v>2017</v>
@@ -5769,13 +5775,13 @@
         <v>104</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>533</v>
+        <v>370</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>535</v>
+        <v>788</v>
       </c>
       <c r="E113" s="3">
         <v>2017</v>
@@ -5793,13 +5799,13 @@
         <v>105</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>536</v>
+        <v>371</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>538</v>
+        <v>789</v>
       </c>
       <c r="E114" s="3">
         <v>2017</v>
@@ -5817,13 +5823,13 @@
         <v>106</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>539</v>
+        <v>372</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>541</v>
+        <v>790</v>
       </c>
       <c r="E115" s="3">
         <v>2017</v>
@@ -5841,13 +5847,13 @@
         <v>107</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>542</v>
+        <v>373</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>544</v>
+        <v>791</v>
       </c>
       <c r="E116" s="3">
         <v>2017</v>
@@ -5865,13 +5871,13 @@
         <v>108</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>545</v>
+        <v>374</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>547</v>
+        <v>792</v>
       </c>
       <c r="E117" s="3">
         <v>2017</v>
@@ -5889,13 +5895,13 @@
         <v>109</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>548</v>
+        <v>375</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>550</v>
+        <v>793</v>
       </c>
       <c r="E118" s="3">
         <v>2017</v>
@@ -5913,13 +5919,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>551</v>
+        <v>376</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>553</v>
+        <v>794</v>
       </c>
       <c r="E119" s="3">
         <v>2017</v>
@@ -5937,13 +5943,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>554</v>
+        <v>377</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>556</v>
+        <v>795</v>
       </c>
       <c r="E120" s="3">
         <v>2017</v>
@@ -5961,13 +5967,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>557</v>
+        <v>378</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>559</v>
+        <v>796</v>
       </c>
       <c r="E121" s="3">
         <v>2017</v>
@@ -5985,13 +5991,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>560</v>
+        <v>379</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>562</v>
+        <v>797</v>
       </c>
       <c r="E122" s="3">
         <v>2017</v>
@@ -6009,13 +6015,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>563</v>
+        <v>380</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>565</v>
+        <v>798</v>
       </c>
       <c r="E123" s="3">
         <v>2017</v>
@@ -6033,13 +6039,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>566</v>
+        <v>381</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>568</v>
+        <v>799</v>
       </c>
       <c r="E124" s="3">
         <v>2017</v>
@@ -6057,13 +6063,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>569</v>
+        <v>382</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>571</v>
+        <v>800</v>
       </c>
       <c r="E125" s="3">
         <v>2017</v>
@@ -6078,16 +6084,16 @@
     </row>
     <row r="126" spans="1:10" ht="16">
       <c r="A126" s="4" t="s">
-        <v>863</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>572</v>
+        <v>383</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="E126" s="3">
         <v>2017</v>
@@ -6105,13 +6111,13 @@
         <v>117</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>574</v>
+        <v>384</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>576</v>
+        <v>801</v>
       </c>
       <c r="E127" s="3">
         <v>2017</v>
@@ -6129,13 +6135,13 @@
         <v>118</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>577</v>
+        <v>385</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>579</v>
+        <v>802</v>
       </c>
       <c r="E128" s="3">
         <v>2017</v>
@@ -6153,13 +6159,13 @@
         <v>119</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>582</v>
+        <v>803</v>
       </c>
       <c r="E129" s="3">
         <v>2017</v>
@@ -6177,13 +6183,13 @@
         <v>120</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>583</v>
+        <v>387</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>584</v>
+        <v>468</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>585</v>
+        <v>234</v>
       </c>
       <c r="E130" s="3">
         <v>2017</v>
@@ -6201,13 +6207,13 @@
         <v>121</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>588</v>
+        <v>804</v>
       </c>
       <c r="E131" s="3">
         <v>2017</v>
@@ -6225,13 +6231,13 @@
         <v>122</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>589</v>
+        <v>389</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>591</v>
+        <v>805</v>
       </c>
       <c r="E132" s="3">
         <v>2017</v>
@@ -6249,13 +6255,13 @@
         <v>123</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>592</v>
+        <v>390</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>594</v>
+        <v>806</v>
       </c>
       <c r="E133" s="3">
         <v>2017</v>
@@ -6273,13 +6279,13 @@
         <v>124</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>595</v>
+        <v>391</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>597</v>
+        <v>807</v>
       </c>
       <c r="E134" s="3">
         <v>2017</v>
@@ -6297,13 +6303,13 @@
         <v>125</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>598</v>
+        <v>392</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>600</v>
+        <v>808</v>
       </c>
       <c r="E135" s="3">
         <v>2017</v>
@@ -6321,13 +6327,13 @@
         <v>126</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>601</v>
+        <v>393</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>603</v>
+        <v>809</v>
       </c>
       <c r="E136" s="3">
         <v>2017</v>
@@ -6345,13 +6351,13 @@
         <v>127</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>604</v>
+        <v>394</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>606</v>
+        <v>810</v>
       </c>
       <c r="E137" s="3">
         <v>2017</v>
@@ -6369,13 +6375,13 @@
         <v>128</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>607</v>
+        <v>395</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>609</v>
+        <v>811</v>
       </c>
       <c r="E138" s="3">
         <v>2017</v>
@@ -6393,13 +6399,13 @@
         <v>129</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>610</v>
+        <v>396</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>612</v>
+        <v>812</v>
       </c>
       <c r="E139" s="3">
         <v>2017</v>
@@ -6417,13 +6423,13 @@
         <v>130</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>613</v>
+        <v>397</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>615</v>
+        <v>813</v>
       </c>
       <c r="E140" s="3">
         <v>2017</v>
@@ -6441,13 +6447,13 @@
         <v>131</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>616</v>
+        <v>398</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>618</v>
+        <v>814</v>
       </c>
       <c r="E141" s="3">
         <v>2017</v>
@@ -6465,13 +6471,13 @@
         <v>132</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>619</v>
+        <v>399</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>620</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>621</v>
+        <v>815</v>
       </c>
       <c r="E142" s="3">
         <v>2017</v>
@@ -6489,13 +6495,13 @@
         <v>133</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>624</v>
+        <v>816</v>
       </c>
       <c r="E143" s="3">
         <v>2017</v>
@@ -6510,16 +6516,16 @@
     </row>
     <row r="144" spans="1:10" ht="16">
       <c r="A144" s="4" t="s">
-        <v>864</v>
+        <v>246</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>625</v>
+        <v>401</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>627</v>
+        <v>817</v>
       </c>
       <c r="E144" s="3">
         <v>2017</v>
@@ -6537,13 +6543,13 @@
         <v>134</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>628</v>
+        <v>402</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>630</v>
+        <v>818</v>
       </c>
       <c r="E145" s="3">
         <v>2017</v>
@@ -6561,13 +6567,13 @@
         <v>135</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>631</v>
+        <v>403</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>633</v>
+        <v>819</v>
       </c>
       <c r="E146" s="3">
         <v>2017</v>
@@ -6585,13 +6591,13 @@
         <v>136</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>636</v>
+        <v>820</v>
       </c>
       <c r="E147" s="3">
         <v>2017</v>
@@ -6609,13 +6615,13 @@
         <v>137</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>637</v>
+        <v>405</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>639</v>
+        <v>821</v>
       </c>
       <c r="E148" s="3">
         <v>2017</v>
@@ -6633,13 +6639,13 @@
         <v>138</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>640</v>
+        <v>406</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>642</v>
+        <v>822</v>
       </c>
       <c r="E149" s="3">
         <v>2017</v>
@@ -6657,13 +6663,13 @@
         <v>139</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>643</v>
+        <v>407</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>645</v>
+        <v>823</v>
       </c>
       <c r="E150" s="3">
         <v>2017</v>
@@ -6678,16 +6684,16 @@
     </row>
     <row r="151" spans="1:10" ht="16">
       <c r="A151" s="4" t="s">
-        <v>865</v>
+        <v>247</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>646</v>
+        <v>408</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>648</v>
+        <v>824</v>
       </c>
       <c r="E151" s="3">
         <v>2017</v>
@@ -6702,16 +6708,16 @@
     </row>
     <row r="152" spans="1:10" ht="16">
       <c r="A152" s="4" t="s">
-        <v>866</v>
+        <v>248</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>649</v>
+        <v>409</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>651</v>
+        <v>825</v>
       </c>
       <c r="E152" s="3">
         <v>2017</v>
@@ -6729,13 +6735,13 @@
         <v>140</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>652</v>
+        <v>410</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>654</v>
+        <v>826</v>
       </c>
       <c r="E153" s="3">
         <v>2017</v>
@@ -6753,13 +6759,13 @@
         <v>141</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>655</v>
+        <v>411</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>657</v>
+        <v>827</v>
       </c>
       <c r="E154" s="3">
         <v>2017</v>
@@ -6777,13 +6783,13 @@
         <v>142</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>658</v>
+        <v>412</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>660</v>
+        <v>828</v>
       </c>
       <c r="E155" s="3">
         <v>2017</v>
@@ -6801,13 +6807,13 @@
         <v>143</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>661</v>
+        <v>413</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>663</v>
+        <v>829</v>
       </c>
       <c r="E156" s="3">
         <v>2017</v>
@@ -6825,13 +6831,13 @@
         <v>144</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>664</v>
+        <v>414</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>666</v>
+        <v>830</v>
       </c>
       <c r="E157" s="3">
         <v>2017</v>
@@ -6849,13 +6855,13 @@
         <v>145</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E158" s="3">
         <v>2017</v>
@@ -6873,13 +6879,13 @@
         <v>146</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>667</v>
+        <v>415</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>669</v>
+        <v>831</v>
       </c>
       <c r="E159" s="3">
         <v>2017</v>
@@ -6897,13 +6903,13 @@
         <v>147</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>670</v>
+        <v>416</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>672</v>
+        <v>832</v>
       </c>
       <c r="E160" s="3">
         <v>2017</v>
@@ -6921,13 +6927,13 @@
         <v>148</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>673</v>
+        <v>417</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>675</v>
+        <v>833</v>
       </c>
       <c r="E161" s="3">
         <v>2017</v>
@@ -6942,16 +6948,16 @@
     </row>
     <row r="162" spans="1:10" ht="16">
       <c r="A162" s="4" t="s">
-        <v>867</v>
+        <v>249</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E162" s="3">
         <v>2017</v>
@@ -6969,13 +6975,13 @@
         <v>149</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>677</v>
+        <v>418</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>679</v>
+        <v>834</v>
       </c>
       <c r="E163" s="3">
         <v>2017</v>
@@ -6993,13 +6999,13 @@
         <v>150</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>680</v>
+        <v>222</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E164" s="3">
         <v>2017</v>
@@ -7017,13 +7023,13 @@
         <v>151</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>682</v>
+        <v>419</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>684</v>
+        <v>835</v>
       </c>
       <c r="E165" s="3">
         <v>2017</v>
@@ -7041,13 +7047,13 @@
         <v>152</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>685</v>
+        <v>420</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>685</v>
+        <v>642</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E166" s="3">
         <v>2017</v>
@@ -7065,13 +7071,13 @@
         <v>153</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>686</v>
+        <v>421</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>687</v>
+        <v>643</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>688</v>
+        <v>836</v>
       </c>
       <c r="E167" s="3">
         <v>2017</v>
@@ -7089,13 +7095,13 @@
         <v>154</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>689</v>
+        <v>422</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>691</v>
+        <v>837</v>
       </c>
       <c r="E168" s="3">
         <v>2017</v>
@@ -7113,13 +7119,13 @@
         <v>155</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>692</v>
+        <v>423</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E169" s="3">
         <v>2017</v>
@@ -7137,13 +7143,13 @@
         <v>156</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>693</v>
+        <v>424</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>694</v>
+        <v>646</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>695</v>
+        <v>838</v>
       </c>
       <c r="E170" s="3">
         <v>2017</v>
@@ -7161,13 +7167,13 @@
         <v>157</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>696</v>
+        <v>425</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>696</v>
+        <v>425</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E171" s="3">
         <v>2017</v>
@@ -7185,13 +7191,13 @@
         <v>158</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>697</v>
+        <v>426</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="E172" s="3">
         <v>2017</v>
@@ -7209,13 +7215,13 @@
         <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>700</v>
+        <v>427</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E173" s="3">
         <v>2017</v>
@@ -7233,13 +7239,13 @@
         <v>160</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>701</v>
+        <v>428</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>703</v>
+        <v>840</v>
       </c>
       <c r="E174" s="3">
         <v>2017</v>
@@ -7257,13 +7263,13 @@
         <v>161</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>704</v>
+        <v>429</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>705</v>
+        <v>649</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>706</v>
+        <v>841</v>
       </c>
       <c r="E175" s="3">
         <v>2017</v>
@@ -7281,13 +7287,13 @@
         <v>162</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>707</v>
+        <v>430</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>708</v>
+        <v>650</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="E176" s="3">
         <v>2017</v>
@@ -7305,13 +7311,13 @@
         <v>163</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>709</v>
+        <v>431</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>711</v>
+        <v>842</v>
       </c>
       <c r="E177" s="3">
         <v>2017</v>
@@ -7329,13 +7335,13 @@
         <v>164</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>712</v>
+        <v>432</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>714</v>
+        <v>843</v>
       </c>
       <c r="E178" s="3">
         <v>2017</v>
@@ -7353,13 +7359,13 @@
         <v>165</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>715</v>
+        <v>433</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>715</v>
+        <v>433</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E179" s="3">
         <v>2017</v>
@@ -7377,13 +7383,13 @@
         <v>166</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>716</v>
+        <v>434</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>718</v>
+        <v>844</v>
       </c>
       <c r="E180" s="3">
         <v>2017</v>
@@ -7401,13 +7407,13 @@
         <v>167</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>719</v>
+        <v>435</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>720</v>
+        <v>654</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>721</v>
+        <v>845</v>
       </c>
       <c r="E181" s="3">
         <v>2017</v>
@@ -7425,13 +7431,13 @@
         <v>168</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>722</v>
+        <v>436</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>724</v>
+        <v>233</v>
       </c>
       <c r="E182" s="3">
         <v>2017</v>
@@ -7449,13 +7455,13 @@
         <v>169</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>725</v>
+        <v>656</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="E183" s="3">
         <v>2017</v>
@@ -7473,13 +7479,13 @@
         <v>170</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>726</v>
+        <v>438</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>726</v>
+        <v>657</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="E184" s="3">
         <v>2017</v>
@@ -7497,13 +7503,13 @@
         <v>171</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>727</v>
+        <v>439</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>728</v>
+        <v>658</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>729</v>
+        <v>846</v>
       </c>
       <c r="E185" s="3">
         <v>2017</v>
@@ -7521,13 +7527,13 @@
         <v>172</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>730</v>
+        <v>440</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>731</v>
+        <v>659</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>732</v>
+        <v>847</v>
       </c>
       <c r="E186" s="3">
         <v>2017</v>
@@ -7545,13 +7551,13 @@
         <v>173</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>733</v>
+        <v>441</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>734</v>
+        <v>660</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>735</v>
+        <v>848</v>
       </c>
       <c r="E187" s="3">
         <v>2017</v>
@@ -7569,13 +7575,13 @@
         <v>174</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>736</v>
+        <v>442</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>738</v>
+        <v>849</v>
       </c>
       <c r="E188" s="3">
         <v>2017</v>
@@ -7593,13 +7599,13 @@
         <v>175</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>739</v>
+        <v>443</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>740</v>
+        <v>662</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="E189" s="3">
         <v>2017</v>
@@ -7617,13 +7623,13 @@
         <v>176</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>742</v>
+        <v>444</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>742</v>
+        <v>444</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E190" s="3">
         <v>2017</v>
@@ -7641,13 +7647,13 @@
         <v>177</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>743</v>
+        <v>445</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>744</v>
+        <v>663</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>745</v>
+        <v>851</v>
       </c>
       <c r="E191" s="3">
         <v>2017</v>
@@ -7665,13 +7671,13 @@
         <v>178</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E192" s="3">
         <v>2017</v>
@@ -7689,13 +7695,13 @@
         <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>746</v>
+        <v>446</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>748</v>
+        <v>852</v>
       </c>
       <c r="E193" s="3">
         <v>2017</v>
@@ -7713,13 +7719,13 @@
         <v>180</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>749</v>
+        <v>447</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>750</v>
+        <v>665</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>751</v>
+        <v>853</v>
       </c>
       <c r="E194" s="3">
         <v>2017</v>
@@ -7737,13 +7743,13 @@
         <v>181</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>752</v>
+        <v>448</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>753</v>
+        <v>666</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>754</v>
+        <v>854</v>
       </c>
       <c r="E195" s="3">
         <v>2017</v>
@@ -7761,13 +7767,13 @@
         <v>182</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>755</v>
+        <v>449</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>757</v>
+        <v>855</v>
       </c>
       <c r="E196" s="3">
         <v>2017</v>
@@ -7782,16 +7788,16 @@
     </row>
     <row r="197" spans="1:10" ht="16">
       <c r="A197" s="4" t="s">
-        <v>868</v>
+        <v>250</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>758</v>
+        <v>450</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>759</v>
+        <v>668</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
       <c r="E197" s="3">
         <v>2017</v>
@@ -7806,16 +7812,16 @@
     </row>
     <row r="198" spans="1:10" ht="16">
       <c r="A198" s="4" t="s">
-        <v>869</v>
+        <v>251</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E198" s="3">
         <v>2017</v>
@@ -7833,13 +7839,13 @@
         <v>183</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>761</v>
+        <v>451</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>762</v>
+        <v>669</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>676</v>
+        <v>857</v>
       </c>
       <c r="E199" s="3">
         <v>2017</v>
@@ -7857,13 +7863,13 @@
         <v>184</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>763</v>
+        <v>452</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>763</v>
+        <v>452</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E200" s="3">
         <v>2017</v>
@@ -7881,13 +7887,13 @@
         <v>185</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>764</v>
+        <v>453</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>765</v>
+        <v>670</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>766</v>
+        <v>231</v>
       </c>
       <c r="E201" s="3">
         <v>2017</v>
@@ -7905,13 +7911,13 @@
         <v>186</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>767</v>
+        <v>454</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>768</v>
+        <v>671</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="E202" s="3">
         <v>2017</v>
@@ -7926,16 +7932,16 @@
     </row>
     <row r="203" spans="1:10" ht="16">
       <c r="A203" s="4" t="s">
-        <v>870</v>
+        <v>252</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>770</v>
+        <v>455</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>772</v>
+        <v>859</v>
       </c>
       <c r="E203" s="3">
         <v>2017</v>
@@ -7953,13 +7959,13 @@
         <v>187</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>773</v>
+        <v>456</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>774</v>
+        <v>673</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
       <c r="E204" s="3">
         <v>2017</v>
@@ -7977,13 +7983,13 @@
         <v>188</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>776</v>
+        <v>457</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>777</v>
+        <v>674</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E205" s="3">
         <v>2017</v>
@@ -7998,16 +8004,16 @@
     </row>
     <row r="206" spans="1:10" ht="16">
       <c r="A206" s="4" t="s">
-        <v>871</v>
+        <v>253</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>778</v>
+        <v>458</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>779</v>
+        <v>675</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>780</v>
+        <v>861</v>
       </c>
       <c r="E206" s="3">
         <v>2017</v>
@@ -8025,13 +8031,13 @@
         <v>189</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>781</v>
+        <v>459</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>782</v>
+        <v>676</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>783</v>
+        <v>862</v>
       </c>
       <c r="E207" s="3">
         <v>2017</v>
@@ -8049,13 +8055,13 @@
         <v>190</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>784</v>
+        <v>460</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>784</v>
+        <v>460</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E208" s="3">
         <v>2017</v>
@@ -8073,13 +8079,13 @@
         <v>191</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>785</v>
+        <v>461</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>786</v>
+        <v>677</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>787</v>
+        <v>863</v>
       </c>
       <c r="E209" s="3">
         <v>2017</v>
@@ -8097,13 +8103,13 @@
         <v>192</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E210" s="3">
         <v>2017</v>
@@ -8121,13 +8127,13 @@
         <v>193</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>788</v>
+        <v>462</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>788</v>
+        <v>462</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E211" s="3">
         <v>2017</v>
@@ -8145,13 +8151,13 @@
         <v>194</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>789</v>
+        <v>463</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>790</v>
+        <v>678</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>791</v>
+        <v>864</v>
       </c>
       <c r="E212" s="3">
         <v>2017</v>
@@ -8169,13 +8175,13 @@
         <v>195</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>793</v>
+        <v>679</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>794</v>
+        <v>865</v>
       </c>
       <c r="E213" s="3">
         <v>2017</v>
@@ -8193,13 +8199,13 @@
         <v>196</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>795</v>
+        <v>465</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>796</v>
+        <v>680</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>797</v>
+        <v>866</v>
       </c>
       <c r="E214" s="3">
         <v>2017</v>
@@ -8217,13 +8223,13 @@
         <v>197</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>798</v>
+        <v>466</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>799</v>
+        <v>681</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="E215" s="3">
         <v>2017</v>
@@ -8238,16 +8244,16 @@
     </row>
     <row r="216" spans="1:10" ht="16">
       <c r="A216" s="4" t="s">
-        <v>872</v>
+        <v>254</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>801</v>
+        <v>467</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>489</v>
+        <v>233</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>802</v>
+        <v>868</v>
       </c>
       <c r="E216" s="3">
         <v>2017</v>
@@ -8265,13 +8271,13 @@
         <v>198</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>803</v>
+        <v>468</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>803</v>
+        <v>468</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E217" s="3">
         <v>2017</v>
@@ -8289,10 +8295,10 @@
         <v>199</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>804</v>
+        <v>231</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>804</v>
+        <v>231</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>7</v>
@@ -8310,16 +8316,16 @@
     </row>
     <row r="219" spans="1:10" ht="16">
       <c r="A219" s="4" t="s">
-        <v>873</v>
+        <v>255</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>805</v>
+        <v>469</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>806</v>
+        <v>682</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>807</v>
+        <v>869</v>
       </c>
       <c r="E219" s="3">
         <v>2017</v>
@@ -8334,16 +8340,16 @@
     </row>
     <row r="220" spans="1:10" ht="16">
       <c r="A220" s="4" t="s">
-        <v>874</v>
+        <v>256</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>808</v>
+        <v>470</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>809</v>
+        <v>683</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="E220" s="3">
         <v>2017</v>
@@ -8358,16 +8364,16 @@
     </row>
     <row r="221" spans="1:10" ht="16">
       <c r="A221" s="4" t="s">
-        <v>875</v>
+        <v>257</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>811</v>
+        <v>471</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>812</v>
+        <v>684</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="E221" s="3">
         <v>2017</v>
@@ -8385,13 +8391,13 @@
         <v>200</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>814</v>
+        <v>472</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>815</v>
+        <v>685</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>532</v>
+        <v>872</v>
       </c>
       <c r="E222" s="3">
         <v>2017</v>
@@ -8409,13 +8415,13 @@
         <v>201</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E223" s="3">
         <v>2017</v>
@@ -8454,16 +8460,16 @@
     </row>
     <row r="225" spans="1:10" ht="16">
       <c r="A225" s="4" t="s">
-        <v>876</v>
+        <v>258</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>816</v>
+        <v>473</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>817</v>
+        <v>686</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>818</v>
+        <v>309</v>
       </c>
       <c r="E225" s="3">
         <v>2017</v>
@@ -8481,13 +8487,13 @@
         <v>203</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>819</v>
+        <v>474</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>820</v>
+        <v>687</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>821</v>
+        <v>873</v>
       </c>
       <c r="E226" s="3">
         <v>2017</v>
@@ -8505,13 +8511,13 @@
         <v>204</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>822</v>
+        <v>475</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>823</v>
+        <v>688</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>824</v>
+        <v>874</v>
       </c>
       <c r="E227" s="3">
         <v>2017</v>
@@ -8529,13 +8535,13 @@
         <v>205</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>825</v>
+        <v>476</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>826</v>
+        <v>689</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>827</v>
+        <v>875</v>
       </c>
       <c r="E228" s="3">
         <v>2017</v>
@@ -8553,10 +8559,10 @@
         <v>206</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>828</v>
+        <v>477</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>828</v>
+        <v>477</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>7</v>
@@ -8574,16 +8580,16 @@
     </row>
     <row r="230" spans="1:10" ht="16">
       <c r="A230" s="4" t="s">
-        <v>877</v>
+        <v>259</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>829</v>
+        <v>478</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>830</v>
+        <v>690</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>831</v>
+        <v>876</v>
       </c>
       <c r="E230" s="3">
         <v>2017</v>
@@ -8601,10 +8607,10 @@
         <v>207</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>832</v>
+        <v>479</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>832</v>
+        <v>479</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>7</v>
@@ -8625,13 +8631,13 @@
         <v>208</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>833</v>
+        <v>480</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>834</v>
+        <v>691</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="E232" s="3">
         <v>2017</v>
@@ -8649,13 +8655,13 @@
         <v>209</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>836</v>
+        <v>481</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>836</v>
+        <v>481</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E233" s="3">
         <v>2017</v>
@@ -8721,13 +8727,13 @@
         <v>212</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>837</v>
+        <v>482</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>838</v>
+        <v>692</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>818</v>
+        <v>878</v>
       </c>
       <c r="E236" s="3">
         <v>2017</v>
@@ -8745,13 +8751,13 @@
         <v>213</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>839</v>
+        <v>483</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>840</v>
+        <v>693</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>841</v>
+        <v>879</v>
       </c>
       <c r="E237" s="3">
         <v>2017</v>
@@ -8769,10 +8775,10 @@
         <v>214</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>842</v>
+        <v>484</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>842</v>
+        <v>484</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>7</v>
@@ -8793,13 +8799,13 @@
         <v>215</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>843</v>
+        <v>485</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>844</v>
+        <v>694</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>845</v>
+        <v>880</v>
       </c>
       <c r="E239" s="3">
         <v>2017</v>
@@ -8817,10 +8823,10 @@
         <v>216</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>846</v>
+        <v>486</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>846</v>
+        <v>486</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>7</v>
@@ -8841,13 +8847,13 @@
         <v>217</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>847</v>
+        <v>487</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>847</v>
+        <v>487</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E241" s="3">
         <v>2017</v>
@@ -8865,13 +8871,13 @@
         <v>218</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>848</v>
+        <v>488</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>849</v>
+        <v>695</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>725</v>
+        <v>437</v>
       </c>
       <c r="E242" s="3">
         <v>2017</v>
@@ -8889,13 +8895,13 @@
         <v>219</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>850</v>
+        <v>489</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>850</v>
+        <v>489</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E243" s="3">
         <v>2017</v>
@@ -8910,13 +8916,13 @@
     </row>
     <row r="244" spans="1:10" ht="16">
       <c r="A244" s="4" t="s">
-        <v>878</v>
+        <v>260</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>851</v>
+        <v>490</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>851</v>
+        <v>490</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>7</v>
@@ -8937,13 +8943,13 @@
         <v>220</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>852</v>
+        <v>491</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>852</v>
+        <v>491</v>
       </c>
       <c r="E245" s="3">
         <v>2017</v>
